--- a/data/hotels_by_city/Houston/Houston_shard_215.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_215.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="766">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d217746-Reviews-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
   </si>
   <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-Galleria-Uptown.h151407.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2232 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r577914843-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>217746</t>
+  </si>
+  <si>
+    <t>577914843</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Money Stolen and Unauthorized Entry intoroom using a key</t>
+  </si>
+  <si>
+    <t>Unauthorized Entry into room and Money missing last week of April 2018. I've been staying at the Extended Stay America Suites in the Houston Galleria area every year for the past 13 years. Always recommended to my colleagues as well. Thus my company books multiple rooms every year. I estimate about 15 to 20 weeks total per year. Getting a run-around and so far the manager has been less than helpful. Still hoping for a resolution. Else my company will will not be staying here anymore.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Unauthorized Entry into room and Money missing last week of April 2018. I've been staying at the Extended Stay America Suites in the Houston Galleria area every year for the past 13 years. Always recommended to my colleagues as well. Thus my company books multiple rooms every year. I estimate about 15 to 20 weeks total per year. Getting a run-around and so far the manager has been less than helpful. Still hoping for a resolution. Else my company will will not be staying here anymore.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r574260904-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574260904</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Great hotel!! Great location, staff is helpful and awesome</t>
+  </si>
+  <si>
+    <t>Love the staff and the new manager Kim. The location is close to shopping and good restaurants. I would recommend you get more staff some times it took long to get items but over a i enjoyed my stay!! CheersMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Love the staff and the new manager Kim. The location is close to shopping and good restaurants. I would recommend you get more staff some times it took long to get items but over a i enjoyed my stay!! CheersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r569694985-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569694985</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Finally satisfied with hotel.</t>
+  </si>
+  <si>
+    <t>After having suffer through many impersonal hotels. The professionalism and down to earth personalities of the staff at 2300 W loop south was a breath of fresh air. I felt at home and relaxed. Therefore the ambiance and professionalism of staff contributed to a result everyone on my business team was happy with. Because where you lay your head at night which will lead your day thank yyouMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded March 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2018</t>
+  </si>
+  <si>
+    <t>After having suffer through many impersonal hotels. The professionalism and down to earth personalities of the staff at 2300 W loop south was a breath of fresh air. I felt at home and relaxed. Therefore the ambiance and professionalism of staff contributed to a result everyone on my business team was happy with. Because where you lay your head at night which will lead your day thank yyouMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r568941537-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568941537</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Room needs to be updated</t>
+  </si>
+  <si>
+    <t>Furniture is old. Towels are small and thin. Room is just ok to stay, nothing fancy, but definitely overpriced for the condition that was offered. Free breakfast is pretty much just a statement. The only bright side is close to downtown and free to park. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Furniture is old. Towels are small and thin. Room is just ok to stay, nothing fancy, but definitely overpriced for the condition that was offered. Free breakfast is pretty much just a statement. The only bright side is close to downtown and free to park. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r568920299-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568920299</t>
+  </si>
+  <si>
+    <t>I was Fraudulently charged</t>
+  </si>
+  <si>
+    <t>I booked an Paid for a one night stay reservation at this property through Hotels.com. When I arrived at extended-stay Galleria and Check and I was not told anything about my reservation changing .  They asked for credit card for incidentals and I gave them one for my one night stay .  Two days after my check out this hotel charge me over $245. When I called her to ask the reason why they told me Hotels.com had canceled my reservation that I paid for and  then proceeded to tell me I had logged on to the extended-stay website and what a room myself  .  Hotels.com has told me they did not cancel the reservation and I personally never went to the extended-stay website and Booked a room  for myself I asked for a copy of the extended-stay website reservation that I allegedly made and I am still waiting for thisMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2018</t>
+  </si>
+  <si>
+    <t>I booked an Paid for a one night stay reservation at this property through Hotels.com. When I arrived at extended-stay Galleria and Check and I was not told anything about my reservation changing .  They asked for credit card for incidentals and I gave them one for my one night stay .  Two days after my check out this hotel charge me over $245. When I called her to ask the reason why they told me Hotels.com had canceled my reservation that I paid for and  then proceeded to tell me I had logged on to the extended-stay website and what a room myself  .  Hotels.com has told me they did not cancel the reservation and I personally never went to the extended-stay website and Booked a room  for myself I asked for a copy of the extended-stay website reservation that I allegedly made and I am still waiting for thisMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r568152548-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568152548</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>Went to stay at this hotel, for 3 nights. Was quiet, staff was quick and efficient in checking me and were ready to answer any questions I had. The location was ideal. Able to catch bus easily or have friends pick me. Highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Went to stay at this hotel, for 3 nights. Was quiet, staff was quick and efficient in checking me and were ready to answer any questions I had. The location was ideal. Able to catch bus easily or have friends pick me. Highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r567540451-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567540451</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Union Pacific Railroad</t>
+  </si>
+  <si>
+    <t>Manager Erica is Awesome and nice the whole staff is nice and friendly the rooms and hotel is clean and well kept!!!!.....You are right in the mall Area there are plenty of places to eat and go out and have funMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Manager Erica is Awesome and nice the whole staff is nice and friendly the rooms and hotel is clean and well kept!!!!.....You are right in the mall Area there are plenty of places to eat and go out and have funMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r562049466-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562049466</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t>Although this is a great location by the galleria in Houston and the front desk staff was very friendly and courteous the housekeeping woman was rude and refused to give me extra towels and washrags even though there was plenty on her cart. Told me I had to go to the front desk to get my own. My room had 1 washrag and 2 small thin towels on arrival. Apparent drug deal going on in the parking lot and a man at the front counter said his room was broken into and his wallet taken.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Although this is a great location by the galleria in Houston and the front desk staff was very friendly and courteous the housekeeping woman was rude and refused to give me extra towels and washrags even though there was plenty on her cart. Told me I had to go to the front desk to get my own. My room had 1 washrag and 2 small thin towels on arrival. Apparent drug deal going on in the parking lot and a man at the front counter said his room was broken into and his wallet taken.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r561284014-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561284014</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Overall as expected</t>
+  </si>
+  <si>
+    <t>since house keeping is provided once per week, personel bath stuf can be presented daily on front desk. Also litle more option would be nice for breakfast. On the other hand everyting was as expected.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2018</t>
+  </si>
+  <si>
+    <t>since house keeping is provided once per week, personel bath stuf can be presented daily on front desk. Also litle more option would be nice for breakfast. On the other hand everyting was as expected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r559377325-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559377325</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>Coolest ESA in Texas..if</t>
+  </si>
+  <si>
+    <t>Location of the facility close to downtown is on point for a Houston visitor. Decent price point for budget travelers however, not enough cameras to deter mischief and crime within the hotel. The hotel caters to people from everywhere and cannot screen out sociopaths ordinarily so more cameras in more locations in and around the hotel will make customers feel saferMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Location of the facility close to downtown is on point for a Houston visitor. Decent price point for budget travelers however, not enough cameras to deter mischief and crime within the hotel. The hotel caters to people from everywhere and cannot screen out sociopaths ordinarily so more cameras in more locations in and around the hotel will make customers feel saferMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r558823287-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558823287</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Good price+location TERRIBLE service</t>
+  </si>
+  <si>
+    <t>The staff really NEED improvement. I had a problem with the blinds of the room, the manager just told me that she could not help me and that I was free to leave. The second night the fire alarm set on twiceMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>The staff really NEED improvement. I had a problem with the blinds of the room, the manager just told me that she could not help me and that I was free to leave. The second night the fire alarm set on twiceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r558029711-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558029711</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>The worst hotel in the Galleria</t>
+  </si>
+  <si>
+    <t>Keys, lights, hot water, wifi, and TV were all not working. It took over twenty minutes to check in because only one person was there at the so called front desk. The WIFI service was inexcusable in this day and age. The TV was so full of snow it was rendered useless. They also had one of those damn stops on the hot water so the shower was barely lukewarm. The keys worked one of three tries and I get to get two sets. Oh, and they have a deal that tries to force you to buy the "good" wifi that is always free at even the cheapest hotels. Avoid this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded February 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2018</t>
+  </si>
+  <si>
+    <t>Keys, lights, hot water, wifi, and TV were all not working. It took over twenty minutes to check in because only one person was there at the so called front desk. The WIFI service was inexcusable in this day and age. The TV was so full of snow it was rendered useless. They also had one of those damn stops on the hot water so the shower was barely lukewarm. The keys worked one of three tries and I get to get two sets. Oh, and they have a deal that tries to force you to buy the "good" wifi that is always free at even the cheapest hotels. Avoid this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r550654132-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550654132</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Not a hotel nor hostel: it’s a studio (small apartment)</t>
+  </si>
+  <si>
+    <t>I had travelled a lot staying in Hostels and hotels, this is not either of those. I just didn’t know, it’s a studio: small apartment, comfortable, but not a hotel. Disappointed regarding the breakfast, just coffee and cereal bars.Pros: you have a fridge and small kitchen.As the name says, ideal for extended staysMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>I had travelled a lot staying in Hostels and hotels, this is not either of those. I just didn’t know, it’s a studio: small apartment, comfortable, but not a hotel. Disappointed regarding the breakfast, just coffee and cereal bars.Pros: you have a fridge and small kitchen.As the name says, ideal for extended staysMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r549729093-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549729093</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Our stay</t>
+  </si>
+  <si>
+    <t>On the reservation we made, it didn’t say that we were going to be charged extra(10dlls per night) if we wanted housekeeping services. Also it said it included breakfast, and that’s why we decided to stay here, but to our surprise “BREAKFAST” is only COFFEE.The rooms are Ok, but the toilet in our bathroom had a leak.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>On the reservation we made, it didn’t say that we were going to be charged extra(10dlls per night) if we wanted housekeeping services. Also it said it included breakfast, and that’s why we decided to stay here, but to our surprise “BREAKFAST” is only COFFEE.The rooms are Ok, but the toilet in our bathroom had a leak.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r548508093-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548508093</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Life experience but extended stay made it better</t>
+  </si>
+  <si>
+    <t>Extended Stay America provides everything you need to feel like your home. If you need a place to stay and still cook and do laundry. Extended stay was a good experience until I got back on my feet. I was able to book online and once I started getting emails I was able to use discount codes.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Extended Stay America provides everything you need to feel like your home. If you need a place to stay and still cook and do laundry. Extended stay was a good experience until I got back on my feet. I was able to book online and once I started getting emails I was able to use discount codes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r514700132-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514700132</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>One for the road</t>
+  </si>
+  <si>
+    <t>I enjoyed my time visiting here. The atmosphere is good. The rooms are clean and we'll kept. The management and staff are friendly and very helpful. The price is excellent compared to the surrounding hotels. I recommend this location for anyone wanting a quiet place to stay near all the Galleria action.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded August 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2017</t>
+  </si>
+  <si>
+    <t>I enjoyed my time visiting here. The atmosphere is good. The rooms are clean and we'll kept. The management and staff are friendly and very helpful. The price is excellent compared to the surrounding hotels. I recommend this location for anyone wanting a quiet place to stay near all the Galleria action.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r532509523-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532509523</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>EXTENDED STAY AMERICA</t>
+  </si>
+  <si>
+    <t>The hotel was good, but it was expensive . I don't recommend this hotel because of the price and the loss of services included in (the wifi is not included in the final price).  However the staff was very proactive.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was good, but it was expensive . I don't recommend this hotel because of the price and the loss of services included in (the wifi is not included in the final price).  However the staff was very proactive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r511603455-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>511603455</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>This hotel is great!! It is conveniently located. Mall is walking distant. The room was a nice size. Very clean. The staff was very friendly and helpful. Great grab and go breakfast snacks. Beds are comfortable. Great bang for the buck!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded August 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is great!! It is conveniently located. Mall is walking distant. The room was a nice size. Very clean. The staff was very friendly and helpful. Great grab and go breakfast snacks. Beds are comfortable. Great bang for the buck!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r503928937-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503928937</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>Terrible!! The room stinks and kitchen floor was sticky. The soap provided had a bad scent and was hard. If I would have seen the room beforehand, I would have never booked the room. They gave me one price over the phone and a higher price when I checked in. I do not recommend this hotel to anyone and I have never given such a bad review to any place I have stayed. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Terrible!! The room stinks and kitchen floor was sticky. The soap provided had a bad scent and was hard. If I would have seen the room beforehand, I would have never booked the room. They gave me one price over the phone and a higher price when I checked in. I do not recommend this hotel to anyone and I have never given such a bad review to any place I have stayed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r501802721-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501802721</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>Simple, Clean, and Safe Hotel</t>
+  </si>
+  <si>
+    <t>This hotel fits all my desires when looking to reserve a hotel room: cleanliness and safety. If you are just looking for a simple room that makes you feel safe and comfortable, this is the place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>This hotel fits all my desires when looking to reserve a hotel room: cleanliness and safety. If you are just looking for a simple room that makes you feel safe and comfortable, this is the place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r500862877-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500862877</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>great location</t>
+  </si>
+  <si>
+    <t>the hotel   is in great location     close to everything  tight security at nite so u dont have to  worry about ur  cars    the staff is  great    stacey,tanya and  annette  are very nice and  funny clean rooms    i  recheck inwas  breeze    the paper  work was    done when i went  down  stairsMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>the hotel   is in great location     close to everything  tight security at nite so u dont have to  worry about ur  cars    the staff is  great    stacey,tanya and  annette  are very nice and  funny clean rooms    i  recheck inwas  breeze    the paper  work was    done when i went  down  stairsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r495037574-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495037574</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Dont Stay here</t>
+  </si>
+  <si>
+    <t>There is no hot breakfast. You get muffins and crackers and it runs out fast by 7AM, The coffee is diluted and creamer runs out and not refilled. No bath room cleaning unless after 7 days stay.  Possible prostitute menace.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>There is no hot breakfast. You get muffins and crackers and it runs out fast by 7AM, The coffee is diluted and creamer runs out and not refilled. No bath room cleaning unless after 7 days stay.  Possible prostitute menace.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r494378958-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494378958</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Great Location!</t>
+  </si>
+  <si>
+    <t>Great place to use as a base &amp; perfect for a short stay. Staff are accommodating when they can be found. Kitchenware &amp; appliances must be requested at front desk. Beds are on the firm side which suited only 2 out of 4 in our family. Easy access to/from freeway. Cheap price.The Good:Great location! 10 min walk to Galleria, 5 min walk to Starbucks, 15-20 min walk to Whole Foods, 13 min walk to Australian Consulate for passport renewal.Plenty of restaurants nearby at Galleria or north along Post Oak Blvd.The Bad:Poor customer service at check-in! I waited 10 minutes for a staff member to appear at the front desk, even though it was monitored by cameras. In this time I called the hotel from my phone twice (no answer!). The line increased to 6 people by the time a staff member bothered to turn up.The Ugly:Deafening AC &amp; refrigerator noise kept us awake at night; even with ear plugs. We couldn't wait to check out.Musty smell &amp; dampness in room due to no fan in bathroom.The Verdict:Good for a one night stay only.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Great place to use as a base &amp; perfect for a short stay. Staff are accommodating when they can be found. Kitchenware &amp; appliances must be requested at front desk. Beds are on the firm side which suited only 2 out of 4 in our family. Easy access to/from freeway. Cheap price.The Good:Great location! 10 min walk to Galleria, 5 min walk to Starbucks, 15-20 min walk to Whole Foods, 13 min walk to Australian Consulate for passport renewal.Plenty of restaurants nearby at Galleria or north along Post Oak Blvd.The Bad:Poor customer service at check-in! I waited 10 minutes for a staff member to appear at the front desk, even though it was monitored by cameras. In this time I called the hotel from my phone twice (no answer!). The line increased to 6 people by the time a staff member bothered to turn up.The Ugly:Deafening AC &amp; refrigerator noise kept us awake at night; even with ear plugs. We couldn't wait to check out.Musty smell &amp; dampness in room due to no fan in bathroom.The Verdict:Good for a one night stay only.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r493850120-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493850120</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Stop and stsy</t>
+  </si>
+  <si>
+    <t>Very friendly staff, clean rooms and nice property. My check was quick and the staff was very nice. Room was really clean and housekeeping made sure to check to see if I needed anything. Very good location.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Very friendly staff, clean rooms and nice property. My check was quick and the staff was very nice. Room was really clean and housekeeping made sure to check to see if I needed anything. Very good location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r480262994-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480262994</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Great value and location - good clean rooms and genuinely friendly staff</t>
+  </si>
+  <si>
+    <t>I saw the mixed reviews, but after arriving i was very pleasantly suprised.  the staff at reception (Ryan) was genuinely friendly and helpful which was very welcoming.  The whole room was in excellent condition and was very clean.  No insects or cockroaches to worry about (common in Houston).You phone down to reception for whatever utensils and crockery and coffee maker, etc. you need and they bring them to your room - fantastic.The air-conditioning unit and fridge were noisy (i switch off aircon at night anyway).I would happily recommend it and the rate was far lower than other accommodations in the area (especially this week during the Offshore Technology Conference).MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>I saw the mixed reviews, but after arriving i was very pleasantly suprised.  the staff at reception (Ryan) was genuinely friendly and helpful which was very welcoming.  The whole room was in excellent condition and was very clean.  No insects or cockroaches to worry about (common in Houston).You phone down to reception for whatever utensils and crockery and coffee maker, etc. you need and they bring them to your room - fantastic.The air-conditioning unit and fridge were noisy (i switch off aircon at night anyway).I would happily recommend it and the rate was far lower than other accommodations in the area (especially this week during the Offshore Technology Conference).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r474968290-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474968290</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Surprised</t>
+  </si>
+  <si>
+    <t>This hotel I was really surprised how clean it was and the staff was very friendly! For a budget hotel it felt really safe. only issue I had was the internet I could never get connected. it was free but I kept getting disconnected soon as I put the password in. the front desk tried to help me also but they couldn't get It to work as well. I have unlimited data so I wasn't to worried about the wifi.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>This hotel I was really surprised how clean it was and the staff was very friendly! For a budget hotel it felt really safe. only issue I had was the internet I could never get connected. it was free but I kept getting disconnected soon as I put the password in. the front desk tried to help me also but they couldn't get It to work as well. I have unlimited data so I wasn't to worried about the wifi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r473107928-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473107928</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Nice and Affordable</t>
+  </si>
+  <si>
+    <t>This was our first time staying with Extended Stay America. It was nice, affordable, great location!  This is a (way) less than $100 a night hotel, located in an area full of $200+ a night hotels.  It's a nice, affordable hotel in a great area.  It's not the Ritz, but it's still pretty nice.We like staying here because we save SO much money over the pricier hotels, and use that money for great dinners out, day trips to the coast, the Texas hill country, or San Antonio ...Overall, nice, affordable and great, friendly service. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>This was our first time staying with Extended Stay America. It was nice, affordable, great location!  This is a (way) less than $100 a night hotel, located in an area full of $200+ a night hotels.  It's a nice, affordable hotel in a great area.  It's not the Ritz, but it's still pretty nice.We like staying here because we save SO much money over the pricier hotels, and use that money for great dinners out, day trips to the coast, the Texas hill country, or San Antonio ...Overall, nice, affordable and great, friendly service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r460794338-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460794338</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>Yuck</t>
+  </si>
+  <si>
+    <t>The hotel has been remodeled on the outside but needs to be remodeled on the inside also. Stains in carpet, holes in the wall, old loud air conditioner. Not what I'm used to. Very thin old dirty comforter, stains and tears in the recliner. The positive is the staff had EXCELLENT CUSTOMER SERVICE!!!! Very kind, helpful and pleasant. They were the only positive of our stay!!! Thank you guys.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r448936349-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448936349</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Our New Years Getaway at Extended Stay - Houston -Galleria</t>
+  </si>
+  <si>
+    <t>Our New Years Getaway at Extended Stay - Houston -Galleria was awesome! Whether you are staying just over night or a couple of days, this is the perfect place to go. Our room was perfect! It was large and the bed was comfortable, every aspect of our stay was great! Will definitely be back soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Our New Years Getaway at Extended Stay - Houston -Galleria was awesome! Whether you are staying just over night or a couple of days, this is the perfect place to go. Our room was perfect! It was large and the bed was comfortable, every aspect of our stay was great! Will definitely be back soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r447225911-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447225911</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Solo getaway</t>
+  </si>
+  <si>
+    <t>I was in need of a getaway from work earlier this year and i booked at a SPG property by galleria. I went to check in for my reservations and they could not find it and was booked for that night. I was very upset and someone recommended i try Extended Stay Westheimer. So i went to check it out and loved the rates which was responsible for being located in the heart of the Galleria area.  Checked in with no problems and staff was accomodating and i was still able to be surround by all my landmarks i was visiting. After shopping and eating i came back to my room and had a good night sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I was in need of a getaway from work earlier this year and i booked at a SPG property by galleria. I went to check in for my reservations and they could not find it and was booked for that night. I was very upset and someone recommended i try Extended Stay Westheimer. So i went to check it out and loved the rates which was responsible for being located in the heart of the Galleria area.  Checked in with no problems and staff was accomodating and i was still able to be surround by all my landmarks i was visiting. After shopping and eating i came back to my room and had a good night sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r446052170-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446052170</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>MANAGER IS EXCELLENT</t>
+  </si>
+  <si>
+    <t>I booked my stay through a third party site and when I arrived at the location there was an issue with my reservation. It was late and I had been traveling all day and the property manager Marquis went ABOVE AND BEYOND to make sure I was accommodated and that everything was right. I was so impressed with his professionalism and pleasant personality that I joined trip advisor just so I could credit him and make this review. I had never stayed with Extended Stay before and based on this experience I will definitely be returning. Thank you Marquis! I hope your company recognizes how valuable you are!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>I booked my stay through a third party site and when I arrived at the location there was an issue with my reservation. It was late and I had been traveling all day and the property manager Marquis went ABOVE AND BEYOND to make sure I was accommodated and that everything was right. I was so impressed with his professionalism and pleasant personality that I joined trip advisor just so I could credit him and make this review. I had never stayed with Extended Stay before and based on this experience I will definitely be returning. Thank you Marquis! I hope your company recognizes how valuable you are!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r445867336-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445867336</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>Best Hotel in Houston</t>
+  </si>
+  <si>
+    <t>The staff here at Extended Stay America are some of the best that I have ever met! The room was comfortable, clean and well appointed. I highly recommend this property. It was truly home away from home. MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff here at Extended Stay America are some of the best that I have ever met! The room was comfortable, clean and well appointed. I highly recommend this property. It was truly home away from home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r445298982-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445298982</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>Very Caring and Professional Staff</t>
+  </si>
+  <si>
+    <t>Our room was ready for us, and it was very clean and roomy. The staff on duty at the time of our arrival was very kind and courteous. She was very helpful and safety-oriented.Her name was Annabelle, and she was a sweetheart! During our week-long stay for medical appointments, every staff person we encountered was very friendly and it was evident that they took pride in their hotel, namely in addition to Annabelle, Maria and Ricardo took excellent care of us and made sure that we had everything needed to make our stay a positive experience. Another thing I would like to thank Extended Stay in Houston-Galleria-Downtown for is their excellent participation with The American Cancer Society! Thank you so much!MoreShow less</t>
+  </si>
+  <si>
+    <t>Our room was ready for us, and it was very clean and roomy. The staff on duty at the time of our arrival was very kind and courteous. She was very helpful and safety-oriented.Her name was Annabelle, and she was a sweetheart! During our week-long stay for medical appointments, every staff person we encountered was very friendly and it was evident that they took pride in their hotel, namely in addition to Annabelle, Maria and Ricardo took excellent care of us and made sure that we had everything needed to make our stay a positive experience. Another thing I would like to thank Extended Stay in Houston-Galleria-Downtown for is their excellent participation with The American Cancer Society! Thank you so much!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r436951575-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436951575</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>FOR THE LOVE OF ALL TRAVLERS, DO NOT, I REPEAT, DO NOOOOT STAY HERE</t>
+  </si>
+  <si>
+    <t>had to be here for five weeks for a job. they put me here. UGH. can i start a laundry list of all that is heinous with this pit hole of a swamp??
+*kitchen...yeah, RIGHT. NO OVEN. one scraped up frying pan. one small pot. NO knives. can opener that would not open cans, nor a beer bottle. A coffee pot that makes ONE CUP. MUSTY AND MILDEWY rooms. my stank. they said it was the carpet. they shampood it. the room still stunk. two spoons, two forks. i felt like i was in prison. NO WINE OPENER. they had one wine opener for the whole friggin' complex. snowy TV due to dish on roof. NO PBS. had FOX, but no MSNBC. saw a drug woman on meth being taken out of her trashed room. saw prostituion happen in the room across from me. doors slamming at all hours of the day. cars broken into in the parking lot. changing times when they broke down "breakfast", if you can call it that. when you check in they scratch out the fruit and such from the brochure, cuz all they offer is cardboard bars and multi chemical muffins and coffee that runs out if you don't get up by eight.  desk is suppose to be manned late. no way. if you call late for a problem, you get the answering service. I'm not sure if this is a low income housing...had to be here for five weeks for a job. they put me here. UGH. can i start a laundry list of all that is heinous with this pit hole of a swamp??*kitchen...yeah, RIGHT. NO OVEN. one scraped up frying pan. one small pot. NO knives. can opener that would not open cans, nor a beer bottle. A coffee pot that makes ONE CUP. MUSTY AND MILDEWY rooms. my stank. they said it was the carpet. they shampood it. the room still stunk. two spoons, two forks. i felt like i was in prison. NO WINE OPENER. they had one wine opener for the whole friggin' complex. snowy TV due to dish on roof. NO PBS. had FOX, but no MSNBC. saw a drug woman on meth being taken out of her trashed room. saw prostituion happen in the room across from me. doors slamming at all hours of the day. cars broken into in the parking lot. changing times when they broke down "breakfast", if you can call it that. when you check in they scratch out the fruit and such from the brochure, cuz all they offer is cardboard bars and multi chemical muffins and coffee that runs out if you don't get up by eight.  desk is suppose to be manned late. no way. if you call late for a problem, you get the answering service. I'm not sure if this is a low income housing option, but, it was low rent, funky, and at times felt dangerous. i have traveled all around the country for years and this place was the absolute worst. one final caveat: in the bathroom that has no vent, where the door backs up to the shower, there is only fluorescent lights to greet you each morning. you will look as bad as you feel for staying here. oh wait; one last thing...PETS. so besides getting woken up with barking like you were in a puppy mill, i heard the maintenance people griping about working on eradicating FLEAS, SILVERFISH and ANTS. just, do yourself a favor and STAY AWAY.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>had to be here for five weeks for a job. they put me here. UGH. can i start a laundry list of all that is heinous with this pit hole of a swamp??
+*kitchen...yeah, RIGHT. NO OVEN. one scraped up frying pan. one small pot. NO knives. can opener that would not open cans, nor a beer bottle. A coffee pot that makes ONE CUP. MUSTY AND MILDEWY rooms. my stank. they said it was the carpet. they shampood it. the room still stunk. two spoons, two forks. i felt like i was in prison. NO WINE OPENER. they had one wine opener for the whole friggin' complex. snowy TV due to dish on roof. NO PBS. had FOX, but no MSNBC. saw a drug woman on meth being taken out of her trashed room. saw prostituion happen in the room across from me. doors slamming at all hours of the day. cars broken into in the parking lot. changing times when they broke down "breakfast", if you can call it that. when you check in they scratch out the fruit and such from the brochure, cuz all they offer is cardboard bars and multi chemical muffins and coffee that runs out if you don't get up by eight.  desk is suppose to be manned late. no way. if you call late for a problem, you get the answering service. I'm not sure if this is a low income housing...had to be here for five weeks for a job. they put me here. UGH. can i start a laundry list of all that is heinous with this pit hole of a swamp??*kitchen...yeah, RIGHT. NO OVEN. one scraped up frying pan. one small pot. NO knives. can opener that would not open cans, nor a beer bottle. A coffee pot that makes ONE CUP. MUSTY AND MILDEWY rooms. my stank. they said it was the carpet. they shampood it. the room still stunk. two spoons, two forks. i felt like i was in prison. NO WINE OPENER. they had one wine opener for the whole friggin' complex. snowy TV due to dish on roof. NO PBS. had FOX, but no MSNBC. saw a drug woman on meth being taken out of her trashed room. saw prostituion happen in the room across from me. doors slamming at all hours of the day. cars broken into in the parking lot. changing times when they broke down "breakfast", if you can call it that. when you check in they scratch out the fruit and such from the brochure, cuz all they offer is cardboard bars and multi chemical muffins and coffee that runs out if you don't get up by eight.  desk is suppose to be manned late. no way. if you call late for a problem, you get the answering service. I'm not sure if this is a low income housing option, but, it was low rent, funky, and at times felt dangerous. i have traveled all around the country for years and this place was the absolute worst. one final caveat: in the bathroom that has no vent, where the door backs up to the shower, there is only fluorescent lights to greet you each morning. you will look as bad as you feel for staying here. oh wait; one last thing...PETS. so besides getting woken up with barking like you were in a puppy mill, i heard the maintenance people griping about working on eradicating FLEAS, SILVERFISH and ANTS. just, do yourself a favor and STAY AWAY.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r413700356-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>413700356</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Not happy at all ...CHECK YOUR RECIEPT</t>
+  </si>
+  <si>
+    <t>I checked in i booked with priceline and it said 89.99 but when i checked in it said $146.00 im not happy the hotel is not as good as other hotels they charge $25 pet fee. Theres no where to take dogs to do business No dishes in room u have to ask No coffee maker no cofee are u serious ..i stayed at club quaters its better cleaner and better rooms but no pets ...go to the westin oaks at mall free pet fee and a more pet friendly and pool and mall in back of hotel ..i should of paid $50 difference to stay at a 4 star Im very disappointed !!!! I dont down hotels till i have been over charged and unhapyy visitMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I checked in i booked with priceline and it said 89.99 but when i checked in it said $146.00 im not happy the hotel is not as good as other hotels they charge $25 pet fee. Theres no where to take dogs to do business No dishes in room u have to ask No coffee maker no cofee are u serious ..i stayed at club quaters its better cleaner and better rooms but no pets ...go to the westin oaks at mall free pet fee and a more pet friendly and pool and mall in back of hotel ..i should of paid $50 difference to stay at a 4 star Im very disappointed !!!! I dont down hotels till i have been over charged and unhapyy visitMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r408668699-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>408668699</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>NOT worth what you pay</t>
+  </si>
+  <si>
+    <t>The breakfast is a joke.  You get your choice of two different types of granola bars or three types of muffins, which are disgusting.  There is no fresh fruit or juice or milk.  This is NOT a continental breakfast.  The staff is rude.  All of the staff are short and rude with you, like you're BOTHERING THEM if you even speak to them.  There are no "normal" amenities with the hotel such as a decent smoking area or even late checkout times (even though I was told three different things by three different staff members).  There is no channel listing for the television channels.  My room had a horrible smell that made me cough.  There were HUGE tree roaches in the hallway leading to the rooms.  I told a staff member who said thanks and went on about her way in the opposite direction.  The windows are NOT tinted so you must keep your curtains drawn at all times.  My room looks like a model hotel room from the 1970s, the decor is like the photo, but terrible in person.  Thank goodness I got a super cheap rate on this through AAA or I would have been disputing my credit card charge because the room is NOT worth $80 per night!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>The breakfast is a joke.  You get your choice of two different types of granola bars or three types of muffins, which are disgusting.  There is no fresh fruit or juice or milk.  This is NOT a continental breakfast.  The staff is rude.  All of the staff are short and rude with you, like you're BOTHERING THEM if you even speak to them.  There are no "normal" amenities with the hotel such as a decent smoking area or even late checkout times (even though I was told three different things by three different staff members).  There is no channel listing for the television channels.  My room had a horrible smell that made me cough.  There were HUGE tree roaches in the hallway leading to the rooms.  I told a staff member who said thanks and went on about her way in the opposite direction.  The windows are NOT tinted so you must keep your curtains drawn at all times.  My room looks like a model hotel room from the 1970s, the decor is like the photo, but terrible in person.  Thank goodness I got a super cheap rate on this through AAA or I would have been disputing my credit card charge because the room is NOT worth $80 per night!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r354677319-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354677319</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Good area, nice studio rental</t>
+  </si>
+  <si>
+    <t>Standard studio room with kitchenette. Nice, clean, good furnishings &amp; bed but not as upscale as the area. You have to ask for utensils and basic cooking gear (I'm assuming this was a cost cutting measure by the chain). Grab &amp; Go breakfast is very basic, cupcakes, coffee, apples and orange. Internet works fine. Clean and no bugs.This property was recently renovated (painted which is nice. Bath and kitchen work surfaces sprayed with a matte epoxy resin (bleah!) really needs to be sanded and sealed). One elevator of two not working and no signs of repair...  Front entrance door needs repair.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r352182084-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352182084</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>Scary experience/ beware of your safety</t>
+  </si>
+  <si>
+    <t>I checked in and stayed 2 nights. On the second night, at 2:15am I was awakened by two guys opening up my room door with a key. (Luckily I had the safety chain in place).  I jumped up and went to door. They had just checked in and said the front desk just gave them the key for this room. What a scary experience. When I checked out the next morning the lady at the front desk said it was a mistake but really didn't seem to care. Or offer any compensation for this scary mistake. I explained to her to that was a huge safety issue, and what if I was a woman traveling alone or what if I did not put the safety chain on the door, those other guest would have been directly inside my room. Just be aware, she really didn't care!! Beware!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I checked in and stayed 2 nights. On the second night, at 2:15am I was awakened by two guys opening up my room door with a key. (Luckily I had the safety chain in place).  I jumped up and went to door. They had just checked in and said the front desk just gave them the key for this room. What a scary experience. When I checked out the next morning the lady at the front desk said it was a mistake but really didn't seem to care. Or offer any compensation for this scary mistake. I explained to her to that was a huge safety issue, and what if I was a woman traveling alone or what if I did not put the safety chain on the door, those other guest would have been directly inside my room. Just be aware, she really didn't care!! Beware!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r323782306-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323782306</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Never Return back!</t>
+  </si>
+  <si>
+    <t>I do dissatisfied at all about this place, dirty and poor staff attention to clients !in this place you must to do everything by yourself, even bring the dirty towel for a new one, you feel unsafe in this place; it located a galleria a good sector of Houston but this hotel looks so uncare, dirty and horrible!! don't book here!! trust me.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r318723317-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318723317</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Not sure about extended stay</t>
+  </si>
+  <si>
+    <t>Room was nice but right on 610 and a lot of road noise. Also room does not have coffee maker, you have to request it to get one in your room, that is crazy when all hotels have one in their rooms. Air conditioner in room as to close to the bed. It cycling off and on was also annoying to person who slept on that side. Grab and go breakfast was great but no muffins the first day, they were out. Convent location to Galleria and not far from hospitals. We were there to visit someone in hospital and the drive is doable.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r304981370-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304981370</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t>Good Hotel excellent locality and friendly staff</t>
+  </si>
+  <si>
+    <t>ProsGood location, well connected by public Transport . very near posh galleria mallNice sunny rooms, kitchen, Refrigerator, Microwave, Oven and basic utensilsVery friendly staff at reception and house keeping. Specially Mr Moazzam at reception was very Friendly and helpfulProvided a 32 inch TV with adequate channelsHot water 24 hoursCons Although they claim complimentary breakfast ,the breakfast is basic only apples, oranges, Cup cakes, packed oat mill and tea/coffee. No Breads, no Jam/butter, no eggs or juicesThe room is cleaned every seven days hence in between the floor tend to become dirty However you can change towels and bed sheets  at reception any time if required free of cost.There is problem in the software in the chain, If you call the hotel to extended the  dates of stay you may find the rate 5 dollars higher than website. Check the rates in Website before calling the reception for extending the stay dates.Suggestions. Charge  2 USD per guest and add bread/egg/butter/jam Two eggs, two piece bread. a spoon of butter/jam and a glass of juice should not cost more than 2 Dollars.In the store they should increase more varieties of frozen foodHotel should provide brush in each room so that the guests can clean the room themselves to remove the dirt on the floor.Overall it was a very nice experience for more than a monthMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>ProsGood location, well connected by public Transport . very near posh galleria mallNice sunny rooms, kitchen, Refrigerator, Microwave, Oven and basic utensilsVery friendly staff at reception and house keeping. Specially Mr Moazzam at reception was very Friendly and helpfulProvided a 32 inch TV with adequate channelsHot water 24 hoursCons Although they claim complimentary breakfast ,the breakfast is basic only apples, oranges, Cup cakes, packed oat mill and tea/coffee. No Breads, no Jam/butter, no eggs or juicesThe room is cleaned every seven days hence in between the floor tend to become dirty However you can change towels and bed sheets  at reception any time if required free of cost.There is problem in the software in the chain, If you call the hotel to extended the  dates of stay you may find the rate 5 dollars higher than website. Check the rates in Website before calling the reception for extending the stay dates.Suggestions. Charge  2 USD per guest and add bread/egg/butter/jam Two eggs, two piece bread. a spoon of butter/jam and a glass of juice should not cost more than 2 Dollars.In the store they should increase more varieties of frozen foodHotel should provide brush in each room so that the guests can clean the room themselves to remove the dirt on the floor.Overall it was a very nice experience for more than a monthMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r304039735-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304039735</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>Dirty room on arrival, staff was rude when I complained</t>
+  </si>
+  <si>
+    <t>The room was dirty when I arrive, nothing was done to fix this. When I got back the to the hotel the follow day the room was STILL not clean. I complained to the staff at the desk about my displeasure with this, he was very rude and told me to stop complaining and repeating myself. My co worker was here last week and had a very similar experience. My company comes to Houston often and I made it very clear to my director to never never use this place again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r292345561-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292345561</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>A pleasant 3 month stay</t>
+  </si>
+  <si>
+    <t>I was provided three month of stay here at this hotel my my employer and mine was a pleasant experience. I stayed in a studio apartment which was adequately furnished. The hotel has a laundry room too. The staff were always friendly and helpful. I would like mention Moazzam at the front desk who was very helpful. Also we had shuttle service two days a week to a grocery store for shopping. This was very helpful for people without vehicle and the prompt and friendly driver, Mohammed was always there in time.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r288221568-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288221568</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Nice Stay at the Extended Stay@ Galleria</t>
+  </si>
+  <si>
+    <t>Nice stay at the Extended stay.. Very close to many shops, restaurants and work too... Mr. MoAzzam  the person in charge - is a very nice courteous person who takes care of your needs... personally! Rare to find such people in hospitality industry who go out of the way and take personal care.. kudos! Thank you sir.. You have made our stay not just comfortable but memorable as well...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r283238896-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283238896</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Flea infestation</t>
+  </si>
+  <si>
+    <t>I arrived at this hotel in the afternoon, and left right away to meet some friends, so it was not until I returned at night and actually took my shoes off that I felt like something was biting my ankles.
+Fleas are notoriously hard to spot, and much harder to catch, but I managed to catch one on the bed (most were on the kitchen floor, jumping around) and squash it. I took it down to the receptionist, who was extremely apologetic and helpful, and assigned me to another 'deluxe' room. I spent the night there with no more flea bites. It turns out that this was because I did not yet visit the bathroom in this new room.
+However, in the morning I went to the bathroom in the new room, and got bitten again. Again, I managed to kill one of the fleas, went down to reception and showed it to the receptionist in charge. Again, he was apologetic, and told me the problem would be fixed by evening, which was fine since I had business all day.
+Upon my returned I was reassigned to yet another room, which appeared to be flea-free.
+However, I went to dinner and when I returned there was a horde of winged ants camping on the fluorescent light over the sink.
+This time I figured I should count my blessings (no fleas, after all) and rather than go talk with the receptionist...I arrived at this hotel in the afternoon, and left right away to meet some friends, so it was not until I returned at night and actually took my shoes off that I felt like something was biting my ankles.Fleas are notoriously hard to spot, and much harder to catch, but I managed to catch one on the bed (most were on the kitchen floor, jumping around) and squash it. I took it down to the receptionist, who was extremely apologetic and helpful, and assigned me to another 'deluxe' room. I spent the night there with no more flea bites. It turns out that this was because I did not yet visit the bathroom in this new room.However, in the morning I went to the bathroom in the new room, and got bitten again. Again, I managed to kill one of the fleas, went down to reception and showed it to the receptionist in charge. Again, he was apologetic, and told me the problem would be fixed by evening, which was fine since I had business all day.Upon my returned I was reassigned to yet another room, which appeared to be flea-free.However, I went to dinner and when I returned there was a horde of winged ants camping on the fluorescent light over the sink.This time I figured I should count my blessings (no fleas, after all) and rather than go talk with the receptionist again I simply turned on the light in the bathroom, and turned all the other lights off. The flying ants eventually all migrated to the bathroom, whereupon I sneakily closed the door on them.Summary: This place would be fine if their cleaning crew had any idea what they were doing. They allow the residents to have animals, which may be a source for the fleas. Receptionists are friendly enough, but it does no good to move rooms if all rooms have some type of bug.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>I arrived at this hotel in the afternoon, and left right away to meet some friends, so it was not until I returned at night and actually took my shoes off that I felt like something was biting my ankles.
+Fleas are notoriously hard to spot, and much harder to catch, but I managed to catch one on the bed (most were on the kitchen floor, jumping around) and squash it. I took it down to the receptionist, who was extremely apologetic and helpful, and assigned me to another 'deluxe' room. I spent the night there with no more flea bites. It turns out that this was because I did not yet visit the bathroom in this new room.
+However, in the morning I went to the bathroom in the new room, and got bitten again. Again, I managed to kill one of the fleas, went down to reception and showed it to the receptionist in charge. Again, he was apologetic, and told me the problem would be fixed by evening, which was fine since I had business all day.
+Upon my returned I was reassigned to yet another room, which appeared to be flea-free.
+However, I went to dinner and when I returned there was a horde of winged ants camping on the fluorescent light over the sink.
+This time I figured I should count my blessings (no fleas, after all) and rather than go talk with the receptionist...I arrived at this hotel in the afternoon, and left right away to meet some friends, so it was not until I returned at night and actually took my shoes off that I felt like something was biting my ankles.Fleas are notoriously hard to spot, and much harder to catch, but I managed to catch one on the bed (most were on the kitchen floor, jumping around) and squash it. I took it down to the receptionist, who was extremely apologetic and helpful, and assigned me to another 'deluxe' room. I spent the night there with no more flea bites. It turns out that this was because I did not yet visit the bathroom in this new room.However, in the morning I went to the bathroom in the new room, and got bitten again. Again, I managed to kill one of the fleas, went down to reception and showed it to the receptionist in charge. Again, he was apologetic, and told me the problem would be fixed by evening, which was fine since I had business all day.Upon my returned I was reassigned to yet another room, which appeared to be flea-free.However, I went to dinner and when I returned there was a horde of winged ants camping on the fluorescent light over the sink.This time I figured I should count my blessings (no fleas, after all) and rather than go talk with the receptionist again I simply turned on the light in the bathroom, and turned all the other lights off. The flying ants eventually all migrated to the bathroom, whereupon I sneakily closed the door on them.Summary: This place would be fine if their cleaning crew had any idea what they were doing. They allow the residents to have animals, which may be a source for the fleas. Receptionists are friendly enough, but it does no good to move rooms if all rooms have some type of bug.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r277441121-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277441121</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>really nice location</t>
+  </si>
+  <si>
+    <t>I stayed here for 65 nights during the summer. I can say that the hotel rooms are big and nice. comparing to the price I can say that it is perfect. the rooms are clean and they just clean it once or twice a week I am not sure. but it really nice. The only problem I faced that you sometime see really strange people staying at the hotel and sometimes you smill weeds at the floors. The staff were really nice and friendly I spent hours talking to them.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r271842256-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271842256</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Avoid! (unless they charge &lt;$80/night)</t>
+  </si>
+  <si>
+    <t>Check in was were it all started to go wrong..to be told you'll get a room that doesn't smell is not a good place to start! This is a very basic hotel which I would expect to pay no more than $80/night. Unfortunately when they charge $300+/night then there is no hiding place!Then to be told they charge extra for cleaning or clean towels!! Ouch!!! (to be fair you can bring your old towels to reception to be swapped for new!)Room smelled old, although appeared clean...apart from the mould on the floor. I checked out after one night as I could not justify staying there for $300+/night.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Check in was were it all started to go wrong..to be told you'll get a room that doesn't smell is not a good place to start! This is a very basic hotel which I would expect to pay no more than $80/night. Unfortunately when they charge $300+/night then there is no hiding place!Then to be told they charge extra for cleaning or clean towels!! Ouch!!! (to be fair you can bring your old towels to reception to be swapped for new!)Room smelled old, although appeared clean...apart from the mould on the floor. I checked out after one night as I could not justify staying there for $300+/night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r271789736-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271789736</t>
+  </si>
+  <si>
+    <t>stay was great!</t>
+  </si>
+  <si>
+    <t>Excellent service. a woman at the front  desk  name:( Dewana ) was always nice and respectful, Also very helpful. Great service...... Always was concerned  to needs. great with giving directions, And helpful with providing informationMoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent service. a woman at the front  desk  name:( Dewana ) was always nice and respectful, Also very helpful. Great service...... Always was concerned  to needs. great with giving directions, And helpful with providing informationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r264926928-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264926928</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>Terrible Experience</t>
+  </si>
+  <si>
+    <t>1. They charge extra for room cleaning (including trash dump, cleaning bath room, vacuuming etc.)2. Common areas are stinky (elevators, lobbies etc.)3. They don't change bed sheets, towels, napkins daily.4. One or two persons to support entire hotel for 24 hrs. Many times when I called front desk no one answers.4. Unfriendly staff</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r262665221-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262665221</t>
+  </si>
+  <si>
+    <t>03/30/2015</t>
+  </si>
+  <si>
+    <t>Our 'home' for 5 weeks - Safe, Comfortable, and Convenient!</t>
+  </si>
+  <si>
+    <t>My sister and I have 'lived' here for the last 5 weeks as she is receiving treatment at MD Anderson.  When we first checked in we wanted a different room due to an unpleasant odor.  The manager could not have been more accommodating and we were moved as soon as another suitable room was available (2 days).  We have been extremely pleased with the hotel and it's amenities.  Laundry facility is super clean, maid service does a very good job and the folks at the front desk could not be friendlier.....after staying somewhere 5 weeks, it sorta becomes 'home' and it is great to be welcomed 'home' every evening by friendly faces!  Specifically, Moazzam, he is the nicest man and he is ALWAYS pleasant and very helpful!  He makes you feel like this is HIS home and YOU are his only guest!  We will stay here again because of the staff!  The maintenance man is also friendly and very helpful - very pleasant.  As for the hotel itself, the cabinets in the kitchen could use updating, but it's clean.   The location to Galleria and a short 15 minute drive to MD Anderson is great.  Easy access on and off the interstate - location is excellent!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>My sister and I have 'lived' here for the last 5 weeks as she is receiving treatment at MD Anderson.  When we first checked in we wanted a different room due to an unpleasant odor.  The manager could not have been more accommodating and we were moved as soon as another suitable room was available (2 days).  We have been extremely pleased with the hotel and it's amenities.  Laundry facility is super clean, maid service does a very good job and the folks at the front desk could not be friendlier.....after staying somewhere 5 weeks, it sorta becomes 'home' and it is great to be welcomed 'home' every evening by friendly faces!  Specifically, Moazzam, he is the nicest man and he is ALWAYS pleasant and very helpful!  He makes you feel like this is HIS home and YOU are his only guest!  We will stay here again because of the staff!  The maintenance man is also friendly and very helpful - very pleasant.  As for the hotel itself, the cabinets in the kitchen could use updating, but it's clean.   The location to Galleria and a short 15 minute drive to MD Anderson is great.  Easy access on and off the interstate - location is excellent!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r262294120-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262294120</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>A Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>My company booked me into this hotel.  I am usually a Hilton Garden Inn or Marriott girl but I had no choice in selecting hotel.  This is a place where business people stay long-term so it operates a bit differently than a "hotel".  The place is immaculate.  My room was very clean which I appreciated.  WIFI free and fast so I was able to work at the desk in my room on weekends and evenings. Soap and towels are provided but if you want new towels you bring old towels to front desk and they give you new ones.  No one changes your bed or empties your trash -- there is a trash chute on each floor. Think of it like an apartment you live in for awhile.  If you want plates, dishes, silverware, toaster, pots etc. for your kitchen area you ask for them and they promptly deliver them.  I had to do laundry going into my second week and the laundry room was light and bright, very clean, and had a TV.  It was right off lobby so I felt safe waiting for it to finish.  What made this place one that I would recommend and come back to are the staff.  Moazzam and Tracy were the main people I dealt with and they have excellent customer service skills. They made sure the coffee was fresh and didn't run out and Moazzam helped me arrange my transportation to...My company booked me into this hotel.  I am usually a Hilton Garden Inn or Marriott girl but I had no choice in selecting hotel.  This is a place where business people stay long-term so it operates a bit differently than a "hotel".  The place is immaculate.  My room was very clean which I appreciated.  WIFI free and fast so I was able to work at the desk in my room on weekends and evenings. Soap and towels are provided but if you want new towels you bring old towels to front desk and they give you new ones.  No one changes your bed or empties your trash -- there is a trash chute on each floor. Think of it like an apartment you live in for awhile.  If you want plates, dishes, silverware, toaster, pots etc. for your kitchen area you ask for them and they promptly deliver them.  I had to do laundry going into my second week and the laundry room was light and bright, very clean, and had a TV.  It was right off lobby so I felt safe waiting for it to finish.  What made this place one that I would recommend and come back to are the staff.  Moazzam and Tracy were the main people I dealt with and they have excellent customer service skills. They made sure the coffee was fresh and didn't run out and Moazzam helped me arrange my transportation to the airport.  I can't say enough nice things about these folks.  I walked next to the Sheraton and ate lunch and dinner there on weekends. Also walked around the corner to lots of shopping.  So if you have to stay awhile and you don't mind emptying your trash and making your bed this is good quality for your money.  Oh, bed was comfortable and the closet was big with lots of shelves you can easily reach and plenty of space in bathroom for all your "stuff".  I used the refrigerator and microwave a lot too.MoreShow less</t>
+  </si>
+  <si>
+    <t>My company booked me into this hotel.  I am usually a Hilton Garden Inn or Marriott girl but I had no choice in selecting hotel.  This is a place where business people stay long-term so it operates a bit differently than a "hotel".  The place is immaculate.  My room was very clean which I appreciated.  WIFI free and fast so I was able to work at the desk in my room on weekends and evenings. Soap and towels are provided but if you want new towels you bring old towels to front desk and they give you new ones.  No one changes your bed or empties your trash -- there is a trash chute on each floor. Think of it like an apartment you live in for awhile.  If you want plates, dishes, silverware, toaster, pots etc. for your kitchen area you ask for them and they promptly deliver them.  I had to do laundry going into my second week and the laundry room was light and bright, very clean, and had a TV.  It was right off lobby so I felt safe waiting for it to finish.  What made this place one that I would recommend and come back to are the staff.  Moazzam and Tracy were the main people I dealt with and they have excellent customer service skills. They made sure the coffee was fresh and didn't run out and Moazzam helped me arrange my transportation to...My company booked me into this hotel.  I am usually a Hilton Garden Inn or Marriott girl but I had no choice in selecting hotel.  This is a place where business people stay long-term so it operates a bit differently than a "hotel".  The place is immaculate.  My room was very clean which I appreciated.  WIFI free and fast so I was able to work at the desk in my room on weekends and evenings. Soap and towels are provided but if you want new towels you bring old towels to front desk and they give you new ones.  No one changes your bed or empties your trash -- there is a trash chute on each floor. Think of it like an apartment you live in for awhile.  If you want plates, dishes, silverware, toaster, pots etc. for your kitchen area you ask for them and they promptly deliver them.  I had to do laundry going into my second week and the laundry room was light and bright, very clean, and had a TV.  It was right off lobby so I felt safe waiting for it to finish.  What made this place one that I would recommend and come back to are the staff.  Moazzam and Tracy were the main people I dealt with and they have excellent customer service skills. They made sure the coffee was fresh and didn't run out and Moazzam helped me arrange my transportation to the airport.  I can't say enough nice things about these folks.  I walked next to the Sheraton and ate lunch and dinner there on weekends. Also walked around the corner to lots of shopping.  So if you have to stay awhile and you don't mind emptying your trash and making your bed this is good quality for your money.  Oh, bed was comfortable and the closet was big with lots of shelves you can easily reach and plenty of space in bathroom for all your "stuff".  I used the refrigerator and microwave a lot too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r236052583-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236052583</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>Only if you have no enough money for better place</t>
+  </si>
+  <si>
+    <t>It was business trip to US.Previously I visited only 5star hotel like Hyatt,Marriott &amp; Ranaissanse...So,I didn't expect this level of hotel.And was dissapointed.So the location near Galleria was good.The receptionists were polite and tried to be helpfull.That's good.But the hotel couldn't provide with simple things like shower gel,slipperies.There is no real breakfast and no restraunt at all.They put some coffee,tea and 2 kinds of cereals,maffins and few fruits every day same.2nd day I already fed up with such breakdast.This place is for those who will cook by himself.But if you want to do it,you need to ask all dishes,plates etc.Even glass to drink water you need to ask...I was waiting when we will move to other place. The room looked ok,but it is old furniture,bath and etc.I didn't feel comfortable to have shower there.It wasn't clean very well.So,only plus was people at reception and location.And if you want to save money and like cooking,that's probably your place.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was business trip to US.Previously I visited only 5star hotel like Hyatt,Marriott &amp; Ranaissanse...So,I didn't expect this level of hotel.And was dissapointed.So the location near Galleria was good.The receptionists were polite and tried to be helpfull.That's good.But the hotel couldn't provide with simple things like shower gel,slipperies.There is no real breakfast and no restraunt at all.They put some coffee,tea and 2 kinds of cereals,maffins and few fruits every day same.2nd day I already fed up with such breakdast.This place is for those who will cook by himself.But if you want to do it,you need to ask all dishes,plates etc.Even glass to drink water you need to ask...I was waiting when we will move to other place. The room looked ok,but it is old furniture,bath and etc.I didn't feel comfortable to have shower there.It wasn't clean very well.So,only plus was people at reception and location.And if you want to save money and like cooking,that's probably your place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r233990248-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233990248</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>A mini-apartment for a night- very nice.</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and had a home-town feel as each room is a mini apartment.   Great location near Westhiemer and the galleria.   Pleasant staff.   However, could have use at least 1 cup/ glass in the room.   It was understood a request for dishes is needed for the kitchen, but there was not even a plastic cup for drinking water in the room.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r227002989-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>227002989</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>lifesaver</t>
+  </si>
+  <si>
+    <t>I needed a place to stay near to my home while some renovations were being done.  I work at night and had to sleep during the day and I am on a special diet so that eating out everyday for 2 weeks plus would not be an option.  This extended stay was close enough to my house as well as close to work.  The mini stove and good size refrigerator allowed me to keep a good amount of food for eating there and taking to work.  It was absolutely perfect and the front desk staff was absolutely wonderful !!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded September 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2014</t>
+  </si>
+  <si>
+    <t>I needed a place to stay near to my home while some renovations were being done.  I work at night and had to sleep during the day and I am on a special diet so that eating out everyday for 2 weeks plus would not be an option.  This extended stay was close enough to my house as well as close to work.  The mini stove and good size refrigerator allowed me to keep a good amount of food for eating there and taking to work.  It was absolutely perfect and the front desk staff was absolutely wonderful !!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r200345153-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200345153</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Extended Stay - nice &amp; convenient</t>
+  </si>
+  <si>
+    <t>I only stayed for 1 night even though this is an extended stay property.  This property is recently remodeled and was clean &amp; comfortable.  It is also in a very convenient area, near the Galleria.  Many restaurants &amp; shops nearby.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r199858234-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199858234</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>A very nice experience!</t>
+  </si>
+  <si>
+    <t>Good location: 10 mins to Galleria by foot; CVS and some restaurants just across the street.Friendly staff: nice and helpful.Cozy environment: rooms are well-equipped and there's even some handy recipes in kitchen.Strongly recommended.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r198985054-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198985054</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>Thanks Larisha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This property is very welcoming.  Larisha made my check very fast and curious but pleasant.  Everything and anything is within walking distance.  Free breakfast . WiFi.  You know the drill.  Will return.  Thanks too all the staff for the service and welcoming property. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r183051067-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183051067</t>
+  </si>
+  <si>
+    <t>10/31/2013</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable, and Convenient</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the cleanliness and service at this location.  I had a less than satisfied experience at the location in north Houston on I-45.The service was great, and obviously this property is well maintained.  The bed was very comfortable, and the bathroom was cleaner than I have seen in most other "value" hotels (Choice, BW, LQ, etc).Located between a Sheraton and Royal Sonesta, this property could compete very well in categories of service, and cleanliness.  I'd recommend this hotel to the leisure and business traveler.  The Grab and Go Breakfast is barely adequate, but what do you expect at a hotel that normally is geared for the long-term stay?MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the cleanliness and service at this location.  I had a less than satisfied experience at the location in north Houston on I-45.The service was great, and obviously this property is well maintained.  The bed was very comfortable, and the bathroom was cleaner than I have seen in most other "value" hotels (Choice, BW, LQ, etc).Located between a Sheraton and Royal Sonesta, this property could compete very well in categories of service, and cleanliness.  I'd recommend this hotel to the leisure and business traveler.  The Grab and Go Breakfast is barely adequate, but what do you expect at a hotel that normally is geared for the long-term stay?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r181757821-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181757821</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>over night stay</t>
+  </si>
+  <si>
+    <t>The General manager and the front desk was Awesome!   They went  out  of their way to accomodate  me  and my  family.,, They were very professional and friendly we drove in from Dallas for one night, got there too early and the room I reserved on Priceline was a smoking room.the GM found one for me:-) ..she has the best attitude. even after I keptbugging her by calling every 10  mins lol!!! We were only there over night but we will back..breakfast was great too. Just enough to hold u til u get to The Breakfast Klub!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded October 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2013</t>
+  </si>
+  <si>
+    <t>The General manager and the front desk was Awesome!   They went  out  of their way to accomodate  me  and my  family.,, They were very professional and friendly we drove in from Dallas for one night, got there too early and the room I reserved on Priceline was a smoking room.the GM found one for me:-) ..she has the best attitude. even after I keptbugging her by calling every 10  mins lol!!! We were only there over night but we will back..breakfast was great too. Just enough to hold u til u get to The Breakfast Klub!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r177400079-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177400079</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>Completely Disorganized</t>
+  </si>
+  <si>
+    <t>Arrived and assigned to a room that was essentially trashed.  I was assigned to another room but when getting coffee the next morning I was locked out of my room.  Since no one was at the desk for another hour I could not get back in until after work.  Staying at another property for the balance of my stay.  Never again.Completely disorganized and not particularly well maintained property.  Will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded September 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2013</t>
+  </si>
+  <si>
+    <t>Arrived and assigned to a room that was essentially trashed.  I was assigned to another room but when getting coffee the next morning I was locked out of my room.  Since no one was at the desk for another hour I could not get back in until after work.  Staying at another property for the balance of my stay.  Never again.Completely disorganized and not particularly well maintained property.  Will not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r174027531-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174027531</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Last Time</t>
+  </si>
+  <si>
+    <t>Check in staff was very nice and friendly!! However the room was dirty! Our first room was hot, smelly, smelled like smoke even though it was a non smoking room, the sheets had long black hair and brown spots on them. I immediately called the front desk and the clerk gave us another room with no problem. This room was not hot but I did have a old smell to it. This room was dusty but was better than the first. However when my husband and I got back to our room in the wee hours of the morning a small brown roach flew off one of the light fixtures. I would say it came in from the outside but we were on the 3rd floor. I stayed in this hotel thanksgiving 2012 with my husband and kids and every thing was perfect.  Not sure what happened in between that time but maybe its time for a renovation MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded September 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2013</t>
+  </si>
+  <si>
+    <t>Check in staff was very nice and friendly!! However the room was dirty! Our first room was hot, smelly, smelled like smoke even though it was a non smoking room, the sheets had long black hair and brown spots on them. I immediately called the front desk and the clerk gave us another room with no problem. This room was not hot but I did have a old smell to it. This room was dusty but was better than the first. However when my husband and I got back to our room in the wee hours of the morning a small brown roach flew off one of the light fixtures. I would say it came in from the outside but we were on the 3rd floor. I stayed in this hotel thanksgiving 2012 with my husband and kids and every thing was perfect.  Not sure what happened in between that time but maybe its time for a renovation More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r170640901-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170640901</t>
+  </si>
+  <si>
+    <t>08/03/2013</t>
+  </si>
+  <si>
+    <t>Good Things:
+1. Front desk staff was friendly and helpful, even if they did mess up our reservation, they were quick to help fix it.
+2. Free coffee in the morning in the lobby.
+3. Convenient location to Galleria Shopping Mall
+Not so good or even terrible things:
+1. Our room was run down and filthy. I regret not taking photos. DO NOT believe what you see posted on this site-our room was old, outdated and just plain dirty. There was a long black hair on the fitted sheet when we turned down one of the beds upon getting to our room. When I plugged in my cell phone behind the bedside table there was a disgusting amount of filth clinging to the outlet. It's not as though the outlet was hidden either. It was very easy to reach and visible. I opened a drawer in the kitchenette and it was so filthy. Not that I planned to cook and thank goodness for that as I would have never touched a dish in that kitchen.
+2. Smoke filled hallways. It seemed that every room around us was filled with smokers. The smell in the hallway AND filtering into our room was HORRIBLE! We had to purchase odor eliminator spray from a nearby CVS.
+3. Stagnant, hot air in public spaces. It just did not smell fresh. With temps over 100 degrees there was very little AC running to cool the...Good Things:1. Front desk staff was friendly and helpful, even if they did mess up our reservation, they were quick to help fix it.2. Free coffee in the morning in the lobby.3. Convenient location to Galleria Shopping MallNot so good or even terrible things:1. Our room was run down and filthy. I regret not taking photos. DO NOT believe what you see posted on this site-our room was old, outdated and just plain dirty. There was a long black hair on the fitted sheet when we turned down one of the beds upon getting to our room. When I plugged in my cell phone behind the bedside table there was a disgusting amount of filth clinging to the outlet. It's not as though the outlet was hidden either. It was very easy to reach and visible. I opened a drawer in the kitchenette and it was so filthy. Not that I planned to cook and thank goodness for that as I would have never touched a dish in that kitchen.2. Smoke filled hallways. It seemed that every room around us was filled with smokers. The smell in the hallway AND filtering into our room was HORRIBLE! We had to purchase odor eliminator spray from a nearby CVS.3. Stagnant, hot air in public spaces. It just did not smell fresh. With temps over 100 degrees there was very little AC running to cool the lobby and hallway areas.4. Bad linens all around. I have better towels that I consider rags at home.5. The "grab n go" breakfast was marginal at best. Less than desirable pieces of whole fruit and granola bars. Better than nothing, but not much better.Our group had three rooms-one on each floor and all were terrible. Take your business elsewhere, I plan to. Not sure I will ever use this chain again. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Good Things:
+1. Front desk staff was friendly and helpful, even if they did mess up our reservation, they were quick to help fix it.
+2. Free coffee in the morning in the lobby.
+3. Convenient location to Galleria Shopping Mall
+Not so good or even terrible things:
+1. Our room was run down and filthy. I regret not taking photos. DO NOT believe what you see posted on this site-our room was old, outdated and just plain dirty. There was a long black hair on the fitted sheet when we turned down one of the beds upon getting to our room. When I plugged in my cell phone behind the bedside table there was a disgusting amount of filth clinging to the outlet. It's not as though the outlet was hidden either. It was very easy to reach and visible. I opened a drawer in the kitchenette and it was so filthy. Not that I planned to cook and thank goodness for that as I would have never touched a dish in that kitchen.
+2. Smoke filled hallways. It seemed that every room around us was filled with smokers. The smell in the hallway AND filtering into our room was HORRIBLE! We had to purchase odor eliminator spray from a nearby CVS.
+3. Stagnant, hot air in public spaces. It just did not smell fresh. With temps over 100 degrees there was very little AC running to cool the...Good Things:1. Front desk staff was friendly and helpful, even if they did mess up our reservation, they were quick to help fix it.2. Free coffee in the morning in the lobby.3. Convenient location to Galleria Shopping MallNot so good or even terrible things:1. Our room was run down and filthy. I regret not taking photos. DO NOT believe what you see posted on this site-our room was old, outdated and just plain dirty. There was a long black hair on the fitted sheet when we turned down one of the beds upon getting to our room. When I plugged in my cell phone behind the bedside table there was a disgusting amount of filth clinging to the outlet. It's not as though the outlet was hidden either. It was very easy to reach and visible. I opened a drawer in the kitchenette and it was so filthy. Not that I planned to cook and thank goodness for that as I would have never touched a dish in that kitchen.2. Smoke filled hallways. It seemed that every room around us was filled with smokers. The smell in the hallway AND filtering into our room was HORRIBLE! We had to purchase odor eliminator spray from a nearby CVS.3. Stagnant, hot air in public spaces. It just did not smell fresh. With temps over 100 degrees there was very little AC running to cool the lobby and hallway areas.4. Bad linens all around. I have better towels that I consider rags at home.5. The "grab n go" breakfast was marginal at best. Less than desirable pieces of whole fruit and granola bars. Better than nothing, but not much better.Our group had three rooms-one on each floor and all were terrible. Take your business elsewhere, I plan to. Not sure I will ever use this chain again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r169942766-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169942766</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>The BEST Extended Stay Hotel in Houston!</t>
+  </si>
+  <si>
+    <t>We stayed 3 months at this hotel.  The staff was excellent!  From the desk clerks to the maids.  We travel 9 months a year so I see a lot of hotel staff.   The rooms were CLEAN, cool and the furniture was nice and well kept!   You can tell that the management cares about this hotel and their customers.It was an enjoyable 3 month stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded August 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2013</t>
+  </si>
+  <si>
+    <t>We stayed 3 months at this hotel.  The staff was excellent!  From the desk clerks to the maids.  We travel 9 months a year so I see a lot of hotel staff.   The rooms were CLEAN, cool and the furniture was nice and well kept!   You can tell that the management cares about this hotel and their customers.It was an enjoyable 3 month stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r163516043-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163516043</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>Location, Price, good stay</t>
+  </si>
+  <si>
+    <t>Best location in Houston for business and people in a budget, the manager Andrew and almost all the girls at the front desk are happy to help and serve.The Hotel is old but in good shape even a small fitness center will be appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded June 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2013</t>
+  </si>
+  <si>
+    <t>Best location in Houston for business and people in a budget, the manager Andrew and almost all the girls at the front desk are happy to help and serve.The Hotel is old but in good shape even a small fitness center will be appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r163116567-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163116567</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>Great staff and large suite</t>
+  </si>
+  <si>
+    <t>I recently stayed in a number of Extended Stay's in Texas, and this was hands-down the finest property I came across.   The manager Andrew is fantastic and set me up on a nice monthly rate.   He even helped get me checked in on his vacation week !  He was very helpful with Houston inside info as I was completely new to the area.   He's really an asset to that hotel and has assembled a great staff.   James in maintenance helped me out greatly to get into a nice room and is a fun guy to chat with - and can fix anything from what I saw.   And Zeba is a real professional at the front desk and very helpful as a concierge.    I really had a great time staying at this hotel and appreciate all the extra effort the staff put in.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded June 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2013</t>
+  </si>
+  <si>
+    <t>I recently stayed in a number of Extended Stay's in Texas, and this was hands-down the finest property I came across.   The manager Andrew is fantastic and set me up on a nice monthly rate.   He even helped get me checked in on his vacation week !  He was very helpful with Houston inside info as I was completely new to the area.   He's really an asset to that hotel and has assembled a great staff.   James in maintenance helped me out greatly to get into a nice room and is a fun guy to chat with - and can fix anything from what I saw.   And Zeba is a real professional at the front desk and very helpful as a concierge.    I really had a great time staying at this hotel and appreciate all the extra effort the staff put in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r162586252-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162586252</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>Good price for 2 star hotel.</t>
+  </si>
+  <si>
+    <t>My mom and I stayed at this location few days ago the staff was very nice very helpful and fast helping us check in as quickly as possible I would like to mention Zeba the gsr there who was very sweet. Our room was very clean to although im surpirsed this hotel is not yet renovated like the other esa seeing as it's in a prime location. This hotel gets a 5 star from me and I will.be recommending this hotel to everyone I know!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded June 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2013</t>
+  </si>
+  <si>
+    <t>My mom and I stayed at this location few days ago the staff was very nice very helpful and fast helping us check in as quickly as possible I would like to mention Zeba the gsr there who was very sweet. Our room was very clean to although im surpirsed this hotel is not yet renovated like the other esa seeing as it's in a prime location. This hotel gets a 5 star from me and I will.be recommending this hotel to everyone I know!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r160984760-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160984760</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Loved this hotel. Quiet. Clean. Front desk rep, Ashley quickly answered all calls and questions. Ashley even assisted when we lock our key in the room, she was able to provide a spare in no time at all. Great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded May 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2013</t>
+  </si>
+  <si>
+    <t>Loved this hotel. Quiet. Clean. Front desk rep, Ashley quickly answered all calls and questions. Ashley even assisted when we lock our key in the room, she was able to provide a spare in no time at all. Great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r160945350-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160945350</t>
+  </si>
+  <si>
+    <t>05/16/2013</t>
+  </si>
+  <si>
+    <t>Highly Recomended!</t>
+  </si>
+  <si>
+    <t>Well furnished, very nice and neat, and well worth the money. Although surrounded by other hotels it was easy to find and the rooms inside are just as good as the looks of the hotel from outside. Staff was very nice and helpful, especially Zeba. She helped us in many ways as well as finding good restaurant around...provided extra necessities..this was my second stay at this hotel and will surely go back there when I visit houston again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Well furnished, very nice and neat, and well worth the money. Although surrounded by other hotels it was easy to find and the rooms inside are just as good as the looks of the hotel from outside. Staff was very nice and helpful, especially Zeba. She helped us in many ways as well as finding good restaurant around...provided extra necessities..this was my second stay at this hotel and will surely go back there when I visit houston again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r160929458-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160929458</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Staying here on business and was very pleased with the staff and the service. Even though it's a budget hotel they make sure they go the extra mile to get everything you need, and always with a smile. Ashley has become a favorite with our group but the whole staff is top notch.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staying here on business and was very pleased with the staff and the service. Even though it's a budget hotel they make sure they go the extra mile to get everything you need, and always with a smile. Ashley has become a favorite with our group but the whole staff is top notch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r157642750-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157642750</t>
+  </si>
+  <si>
+    <t>04/13/2013</t>
+  </si>
+  <si>
+    <t>Making relocation easy!</t>
+  </si>
+  <si>
+    <t>I am relocating to Houston, with work, and this hotel is in a great location.  The parking lot is tucked away and well lit. The units are well maintained and the staff is SO friendly.  Not only the manager, but namely Ashley.  She works in the evenings and always greets me by name after a long day. This hotel displays southern hospitality and has made my introduction to Houston a great one!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded April 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2013</t>
+  </si>
+  <si>
+    <t>I am relocating to Houston, with work, and this hotel is in a great location.  The parking lot is tucked away and well lit. The units are well maintained and the staff is SO friendly.  Not only the manager, but namely Ashley.  She works in the evenings and always greets me by name after a long day. This hotel displays southern hospitality and has made my introduction to Houston a great one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r157131059-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157131059</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Great Value! Highly recommended.</t>
+  </si>
+  <si>
+    <t>I stayed for a few weeks while working on a project. Rooms are cleaned weekly, the kitchenette contained all the necessities and the internet, cable TV and AC are all satisfactory. The staff has a "Welcome to your home-away-from-home" disposition.  I would like to spotlight Ashley Crouch, as she always greeted me with professional and polite conversation when I returned from work in the late evenings. It made my stay pleasant from beginning to end.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded April 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2013</t>
+  </si>
+  <si>
+    <t>I stayed for a few weeks while working on a project. Rooms are cleaned weekly, the kitchenette contained all the necessities and the internet, cable TV and AC are all satisfactory. The staff has a "Welcome to your home-away-from-home" disposition.  I would like to spotlight Ashley Crouch, as she always greeted me with professional and polite conversation when I returned from work in the late evenings. It made my stay pleasant from beginning to end.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r156320278-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156320278</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>Trip to Houston</t>
+  </si>
+  <si>
+    <t>My family and I came to Houston for the first time what an experience! People are so friendly here it is amazing! Staying at this location was the first good thin we did we were close to everything in the city the mall, restaurants, and site seeing landmarks. Hotel was nice clean too, the staff was very comforting, we did not feel like this was our first time in Houston. I want to mention the staff ( Zeba) very sweet girls helped us during our whole trip. I would come back to Houston just to stay at the galleria uptown. Wonderful stay !MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded April 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2013</t>
+  </si>
+  <si>
+    <t>My family and I came to Houston for the first time what an experience! People are so friendly here it is amazing! Staying at this location was the first good thin we did we were close to everything in the city the mall, restaurants, and site seeing landmarks. Hotel was nice clean too, the staff was very comforting, we did not feel like this was our first time in Houston. I want to mention the staff ( Zeba) very sweet girls helped us during our whole trip. I would come back to Houston just to stay at the galleria uptown. Wonderful stay !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r155597868-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155597868</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Service is lovely but this hotel is gross.</t>
+  </si>
+  <si>
+    <t>I wish I could give a better review because the front desk clerk was so nice but this place is super gross. No non-smoking rooms so my floor and especially my room smelled like total crap. The towels looked like they weren't washed. Also I went down for breakfast which was not only a total downer but also out of coffee. Didn't look like anyone planned on making more either. Also there are creepy lurking dudes everywhere which isn't super fun for a lady traveling alone. C'mon Extended Stay, you can do better than that.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded April 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2013</t>
+  </si>
+  <si>
+    <t>I wish I could give a better review because the front desk clerk was so nice but this place is super gross. No non-smoking rooms so my floor and especially my room smelled like total crap. The towels looked like they weren't washed. Also I went down for breakfast which was not only a total downer but also out of coffee. Didn't look like anyone planned on making more either. Also there are creepy lurking dudes everywhere which isn't super fun for a lady traveling alone. C'mon Extended Stay, you can do better than that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r155446455-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155446455</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Talk About Service</t>
+  </si>
+  <si>
+    <t>I recently went to Houston and as luck would have it my reservation was transferred to this location. I had my worries but wow what a hotel for the price. Hotel was clean, people were so nice, staff was just outstanding the young girl at the front desk Zeba was just a delight told me where to go, things to do and what to see just the little guide I needed. I can truly say the hotel felt like home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>I recently went to Houston and as luck would have it my reservation was transferred to this location. I had my worries but wow what a hotel for the price. Hotel was clean, people were so nice, staff was just outstanding the young girl at the front desk Zeba was just a delight told me where to go, things to do and what to see just the little guide I needed. I can truly say the hotel felt like home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r152144027-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152144027</t>
+  </si>
+  <si>
+    <t>02/14/2013</t>
+  </si>
+  <si>
+    <t>GREAT VALUE</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel two weeks ago. I was amazed by the great service they had for their guests.I wasn't very happy with the breakfast i expected more, that was the only down fall.However, the hotel and their staff was just amazing. The hotels ambiances was very good and I loved the location.Especially, your staff member Zeba was very helpful,she helped me find restaurants and things to do in Houston. Overall my experience at this hotel was very good.I will definately look forward to come back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded February 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel two weeks ago. I was amazed by the great service they had for their guests.I wasn't very happy with the breakfast i expected more, that was the only down fall.However, the hotel and their staff was just amazing. The hotels ambiances was very good and I loved the location.Especially, your staff member Zeba was very helpful,she helped me find restaurants and things to do in Houston. Overall my experience at this hotel was very good.I will definately look forward to come back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r151621370-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151621370</t>
+  </si>
+  <si>
+    <t>02/07/2013</t>
+  </si>
+  <si>
+    <t>3 month business venture.</t>
+  </si>
+  <si>
+    <t>Customer service seems to be the order of the day for the employees here.   When I leave in the mornings, I am greeted with a smile and when I come in from work, I am met with smiles as well.  Ashley took the time to give me directions to some of the shops near  by and advised if it was walking distance, or by cab.  Maria and Courtney are great as well.  The hotel offers a full size refrigerator, microwave, and stove top.  My stay started Dec. 2012 and I am still here at this writing.   The room is clean, not daily,, but weekly for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded February 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2013</t>
+  </si>
+  <si>
+    <t>Customer service seems to be the order of the day for the employees here.   When I leave in the mornings, I am greeted with a smile and when I come in from work, I am met with smiles as well.  Ashley took the time to give me directions to some of the shops near  by and advised if it was walking distance, or by cab.  Maria and Courtney are great as well.  The hotel offers a full size refrigerator, microwave, and stove top.  My stay started Dec. 2012 and I am still here at this writing.   The room is clean, not daily,, but weekly for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r151563549-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151563549</t>
+  </si>
+  <si>
+    <t>02/06/2013</t>
+  </si>
+  <si>
+    <t>Amazing staff</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel in jan let me start off by saying compared to the other extended stay this hotel is much cleaner and organized. We really enjoined ourselves. Zeba the young lady at the front desk really helped us out with places to see in Houston set us up with a diver who was really nice who took us every where we wanted to go. The only issue I had was  a leaking in my kitchen but that was solved as well by there handy man James unlike other hotel he was there within 5 min of me letting them know about the issue! Amazing place and amazing staff! We are for sure coming back here!MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded February 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2013</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel in jan let me start off by saying compared to the other extended stay this hotel is much cleaner and organized. We really enjoined ourselves. Zeba the young lady at the front desk really helped us out with places to see in Houston set us up with a diver who was really nice who took us every where we wanted to go. The only issue I had was  a leaking in my kitchen but that was solved as well by there handy man James unlike other hotel he was there within 5 min of me letting them know about the issue! Amazing place and amazing staff! We are for sure coming back here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r150062436-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150062436</t>
+  </si>
+  <si>
+    <t>01/19/2013</t>
+  </si>
+  <si>
+    <t>Great value, great location. One of the better Extended Stay America locations.</t>
+  </si>
+  <si>
+    <t>Extended stay hotels can be hit or miss - I am always just a little nervous bidding for them on Priceline. However, you can't go wrong with any hotel in the Galleria area - this Extended Stay America location is in the top tier of the locations I have visited. My room was much larger than I expected - plenty of space for me to work out in the room without bumping into anything or having to move furniture. Bed was comfortable - no frill linens, but fine for me. The location is really great! The Galleria area is a great place to stay - only downside to this location is you have to circle around the side streets or the highway access ramp in order to re-enter the property once you leave - the entrance is on a one way street. If I am trying to come up with a legitimate complaint it would be that the chairs at the kitchen counter were not very comfortable if you are working at the counter for an extended period of time. It would have been nice to have a desk somewhere in the room. Available on Priceline in the 2* Houston Galleria zone - in my opinion, this is at least a 3* hotel on the Priceline scale.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded January 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2013</t>
+  </si>
+  <si>
+    <t>Extended stay hotels can be hit or miss - I am always just a little nervous bidding for them on Priceline. However, you can't go wrong with any hotel in the Galleria area - this Extended Stay America location is in the top tier of the locations I have visited. My room was much larger than I expected - plenty of space for me to work out in the room without bumping into anything or having to move furniture. Bed was comfortable - no frill linens, but fine for me. The location is really great! The Galleria area is a great place to stay - only downside to this location is you have to circle around the side streets or the highway access ramp in order to re-enter the property once you leave - the entrance is on a one way street. If I am trying to come up with a legitimate complaint it would be that the chairs at the kitchen counter were not very comfortable if you are working at the counter for an extended period of time. It would have been nice to have a desk somewhere in the room. Available on Priceline in the 2* Houston Galleria zone - in my opinion, this is at least a 3* hotel on the Priceline scale.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r146267216-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146267216</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>This hotel is a great value for its walking proximity to the Galleria Mall and short drive to Downtown Houston. I've researched other places nearby with similar amenities and location and found this Extended Stay America, (formerly Homestead Suites), the best value for your buck.Good:Housekeeping comes twice/week complimentary to replenish your room with fresh towels/soap/linens. Secured parking w/cameras in the parking lot, secured door access key cards, and secured laundry facilities make this facility safe and secure. However, the best attribute to this hotel is its friendly and courteous front desk staff. Thank you Zeba, Illia, and Ashley for all the hard work you put into making my stay safe and welcomed. This hotel was my home away from home. You ladies are the best.Bad:Terrible free wireless connection. Not good for business traveler's needing Wifi. However, not entirely the hotel's fault as a third-party services this hotel's wireless connection. Starbuck's free Wifi is walking distance nearby down the street along Westheimer in front of the Mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded November 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is a great value for its walking proximity to the Galleria Mall and short drive to Downtown Houston. I've researched other places nearby with similar amenities and location and found this Extended Stay America, (formerly Homestead Suites), the best value for your buck.Good:Housekeeping comes twice/week complimentary to replenish your room with fresh towels/soap/linens. Secured parking w/cameras in the parking lot, secured door access key cards, and secured laundry facilities make this facility safe and secure. However, the best attribute to this hotel is its friendly and courteous front desk staff. Thank you Zeba, Illia, and Ashley for all the hard work you put into making my stay safe and welcomed. This hotel was my home away from home. You ladies are the best.Bad:Terrible free wireless connection. Not good for business traveler's needing Wifi. However, not entirely the hotel's fault as a third-party services this hotel's wireless connection. Starbuck's free Wifi is walking distance nearby down the street along Westheimer in front of the Mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r143868272-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143868272</t>
+  </si>
+  <si>
+    <t>10/27/2012</t>
+  </si>
+  <si>
+    <t>Satisfied for the price</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for only one night. Upon my arrival, I was greeted by two very friendly front desk clerks. The room was clean. It's an older hotel, so there was some wear and tear on things like the bathroom fixtures. Overall I was satisfied with the quality. MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded October 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2012</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for only one night. Upon my arrival, I was greeted by two very friendly front desk clerks. The room was clean. It's an older hotel, so there was some wear and tear on things like the bathroom fixtures. Overall I was satisfied with the quality. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r143728939-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143728939</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>We are not coming back anymore</t>
+  </si>
+  <si>
+    <t>Our last stay was very disepointing  ,our room was not cleaned at all ,so we had to get another room,not exactly the one we booked(just a king instead 2 queens ),even here the trashcan was not cleaned ,no housekeeping anymore ,you have to sign up,for a $3.00 extra charge per day,the lady behind the recection told as she would talk to the manager about our complains,if we would get some sort of discount ,but nothing happened !New name ,poor service!MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded October 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2012</t>
+  </si>
+  <si>
+    <t>Our last stay was very disepointing  ,our room was not cleaned at all ,so we had to get another room,not exactly the one we booked(just a king instead 2 queens ),even here the trashcan was not cleaned ,no housekeeping anymore ,you have to sign up,for a $3.00 extra charge per day,the lady behind the recection told as she would talk to the manager about our complains,if we would get some sort of discount ,but nothing happened !New name ,poor service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r137175065-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137175065</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>Awesome stay!!!!!!</t>
+  </si>
+  <si>
+    <t>This hotel was truly home away from home. Clean rooms, very nice and helpful staff what more can anyone ask for. We will be coming back here that is a promise. Rates are reasonable. They have great services such as the pantry, my sisters could not live with out, the laundry room, the pool and gym at the Sheraton hotel. The one thing I love is there is always someone to call if we needed anything 24 hour services. Great hotel seriously!!! People really need to give Homestead a try.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded August 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2012</t>
+  </si>
+  <si>
+    <t>This hotel was truly home away from home. Clean rooms, very nice and helpful staff what more can anyone ask for. We will be coming back here that is a promise. Rates are reasonable. They have great services such as the pantry, my sisters could not live with out, the laundry room, the pool and gym at the Sheraton hotel. The one thing I love is there is always someone to call if we needed anything 24 hour services. Great hotel seriously!!! People really need to give Homestead a try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r137072739-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137072739</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>A cheap place in a fancy neighborhood</t>
+  </si>
+  <si>
+    <t>I took two rooms in August 2012. Price is really cheap and rooms are clean. I saw some ants on my second day of stay. The fridge and kitchenette were really helpful. Staff is very friendly.Pros: Price and location.Cons: Elevators need repair. Getting there was a nightmare due to traffic. It seems that freeways 59 and 610 are always full.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Uptown, responded to this reviewResponded August 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2012</t>
+  </si>
+  <si>
+    <t>I took two rooms in August 2012. Price is really cheap and rooms are clean. I saw some ants on my second day of stay. The fridge and kitchenette were really helpful. Staff is very friendly.Pros: Price and location.Cons: Elevators need repair. Getting there was a nightmare due to traffic. It seems that freeways 59 and 610 are always full.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r127950415-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127950415</t>
+  </si>
+  <si>
+    <t>04/15/2012</t>
+  </si>
+  <si>
+    <t>Run Away!</t>
+  </si>
+  <si>
+    <t>Don't be tempted by the cheaper rates.  This place is horrible.  Dirty beds.  Ants.  Noxious smells.  Not worth the cost at half the price.  I complained to the manager and she just told me what kind of ants they were.  I complained to corporate and they never responded.  Run away!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2012</t>
+  </si>
+  <si>
+    <t>Don't be tempted by the cheaper rates.  This place is horrible.  Dirty beds.  Ants.  Noxious smells.  Not worth the cost at half the price.  I complained to the manager and she just told me what kind of ants they were.  I complained to corporate and they never responded.  Run away!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r104424379-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>104424379</t>
+  </si>
+  <si>
+    <t>04/17/2011</t>
+  </si>
+  <si>
+    <t>You Get What You Pay For</t>
+  </si>
+  <si>
+    <t>A lot of people have trashed this hotel, but if you are looking for a cheap room in a good location, it's not so bad.  Bear in mind, you're paying fifty bucks a night.  The service is poor, no doubt.  In fact, there's no one at the front desk after 11:00 p.m.  If you want fresh towels and the bed made, there is a $3 a day charge.  I paid for this, but they still didn't provide me towels on one of the three days we were there.  My buddy also paid for this, and got no service on any of the days we stayed.  There was always a line at the desk, and it was clearly understaffed.  There are basically no amenities - if you want a gym or pool, they will give you a pass to go to the Sheraton next door.  The place is a bit down at the heels.  The rooms are decent sized and mine was clean.  But the linens and bedspread are clearly worn.  The lights in my buddy's room kept going on and off, and two of the guys had problems with the AC in their room.  I had neither of these problems myself, but be prepared if you get the wrong room.  
+All that being said, it's cheap.  I don't know what most people expect for fifty bucks a night, but this was about what I figured it would be.  It's an...A lot of people have trashed this hotel, but if you are looking for a cheap room in a good location, it's not so bad.  Bear in mind, you're paying fifty bucks a night.  The service is poor, no doubt.  In fact, there's no one at the front desk after 11:00 p.m.  If you want fresh towels and the bed made, there is a $3 a day charge.  I paid for this, but they still didn't provide me towels on one of the three days we were there.  My buddy also paid for this, and got no service on any of the days we stayed.  There was always a line at the desk, and it was clearly understaffed.  There are basically no amenities - if you want a gym or pool, they will give you a pass to go to the Sheraton next door.  The place is a bit down at the heels.  The rooms are decent sized and mine was clean.  But the linens and bedspread are clearly worn.  The lights in my buddy's room kept going on and off, and two of the guys had problems with the AC in their room.  I had neither of these problems myself, but be prepared if you get the wrong room.  All that being said, it's cheap.  I don't know what most people expect for fifty bucks a night, but this was about what I figured it would be.  It's an aging, extended-stay hotel that provides a cheap place to crash.  That's it.  If you need a cheap room and don't have high expectations, this place is fine.  If you expect valet parking and room service, pay the $250 a night for the Sheraton next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>A lot of people have trashed this hotel, but if you are looking for a cheap room in a good location, it's not so bad.  Bear in mind, you're paying fifty bucks a night.  The service is poor, no doubt.  In fact, there's no one at the front desk after 11:00 p.m.  If you want fresh towels and the bed made, there is a $3 a day charge.  I paid for this, but they still didn't provide me towels on one of the three days we were there.  My buddy also paid for this, and got no service on any of the days we stayed.  There was always a line at the desk, and it was clearly understaffed.  There are basically no amenities - if you want a gym or pool, they will give you a pass to go to the Sheraton next door.  The place is a bit down at the heels.  The rooms are decent sized and mine was clean.  But the linens and bedspread are clearly worn.  The lights in my buddy's room kept going on and off, and two of the guys had problems with the AC in their room.  I had neither of these problems myself, but be prepared if you get the wrong room.  
+All that being said, it's cheap.  I don't know what most people expect for fifty bucks a night, but this was about what I figured it would be.  It's an...A lot of people have trashed this hotel, but if you are looking for a cheap room in a good location, it's not so bad.  Bear in mind, you're paying fifty bucks a night.  The service is poor, no doubt.  In fact, there's no one at the front desk after 11:00 p.m.  If you want fresh towels and the bed made, there is a $3 a day charge.  I paid for this, but they still didn't provide me towels on one of the three days we were there.  My buddy also paid for this, and got no service on any of the days we stayed.  There was always a line at the desk, and it was clearly understaffed.  There are basically no amenities - if you want a gym or pool, they will give you a pass to go to the Sheraton next door.  The place is a bit down at the heels.  The rooms are decent sized and mine was clean.  But the linens and bedspread are clearly worn.  The lights in my buddy's room kept going on and off, and two of the guys had problems with the AC in their room.  I had neither of these problems myself, but be prepared if you get the wrong room.  All that being said, it's cheap.  I don't know what most people expect for fifty bucks a night, but this was about what I figured it would be.  It's an aging, extended-stay hotel that provides a cheap place to crash.  That's it.  If you need a cheap room and don't have high expectations, this place is fine.  If you expect valet parking and room service, pay the $250 a night for the Sheraton next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r103788472-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>103788472</t>
+  </si>
+  <si>
+    <t>04/12/2011</t>
+  </si>
+  <si>
+    <t>Just follow your nose!</t>
+  </si>
+  <si>
+    <t>The first and last thing you'll notice about this hotel is the smell outside.  There's no nice way to say it, it smells like an outhouse, an overpowering, gutwrenching stench that left us queasy.  I don't know where the smell came from, it could be completely unrelated to the hotel, like from dumpsters at a building next door, but it definitely affected our stay.  We arrived at 3pm and had to wait in line for 30 minutes to check in.  The employees at the counter were extremely slow and gave each customer a long sales pitch hawking extra towels and snacks even though there was a line waiting.  The room itself was a bit smaller than I'm used to from extended-stay type rooms and had a strong odor of mopwater or disinfectant, the sheets were like sandpaper, and there was a constant racket of doorslamming in the morning.  The location is great but I can't say it was worth the rest of the experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>The first and last thing you'll notice about this hotel is the smell outside.  There's no nice way to say it, it smells like an outhouse, an overpowering, gutwrenching stench that left us queasy.  I don't know where the smell came from, it could be completely unrelated to the hotel, like from dumpsters at a building next door, but it definitely affected our stay.  We arrived at 3pm and had to wait in line for 30 minutes to check in.  The employees at the counter were extremely slow and gave each customer a long sales pitch hawking extra towels and snacks even though there was a line waiting.  The room itself was a bit smaller than I'm used to from extended-stay type rooms and had a strong odor of mopwater or disinfectant, the sheets were like sandpaper, and there was a constant racket of doorslamming in the morning.  The location is great but I can't say it was worth the rest of the experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r100432577-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>100432577</t>
+  </si>
+  <si>
+    <t>03/16/2011</t>
+  </si>
+  <si>
+    <t>Worst Trip Ever after our travel</t>
+  </si>
+  <si>
+    <t>I made reservations for this handicapped room in november 2010. I got there and the room was not wheelchair accesible at all. All my spouse could do was roll forward and backward, not to mention that the other handicapped room had someone that had been there for weeks, no problem, but I should have been told that my room would not accomodate me and my spouse instead of the computer giving me a conformation. So, the young lady tried to assist us as best she could, which I commended her on. The next morning I tried to get another room because of their mistake I had to check out of the room that was given to me (another room)even though it was paid in full. The could not guarantee me a room until 130 even though check out was 11. Oh not to mention many customers had to switch rooms upon my arrivall besides me.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>I made reservations for this handicapped room in november 2010. I got there and the room was not wheelchair accesible at all. All my spouse could do was roll forward and backward, not to mention that the other handicapped room had someone that had been there for weeks, no problem, but I should have been told that my room would not accomodate me and my spouse instead of the computer giving me a conformation. So, the young lady tried to assist us as best she could, which I commended her on. The next morning I tried to get another room because of their mistake I had to check out of the room that was given to me (another room)even though it was paid in full. The could not guarantee me a room until 130 even though check out was 11. Oh not to mention many customers had to switch rooms upon my arrivall besides me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r66430997-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>66430997</t>
+  </si>
+  <si>
+    <t>06/04/2010</t>
+  </si>
+  <si>
+    <t>Great place to stay during relocation to Houston</t>
+  </si>
+  <si>
+    <t>This place is a great value for the location especially if you are relocating to Houston and need a place to stay for 30 days or more to find a permanent place.They accept pets and have a great 30 day rate.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r65477387-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>65477387</t>
+  </si>
+  <si>
+    <t>05/27/2010</t>
+  </si>
+  <si>
+    <t>This is a basic hotel with everything...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a basic hotel with everything someone might need. It's not plush or fancy accommodations but is clean, spacious, quiet, well maintained and definitely worth the cost. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r64165035-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>64165035</t>
+  </si>
+  <si>
+    <t>05/14/2010</t>
+  </si>
+  <si>
+    <t>Thumbs up!</t>
+  </si>
+  <si>
+    <t>The Good:  Room price exceptional for the Galleria area of Houston.  Rooms were very clean and quiet.  All ammenities in working order.Front desk staff friendly and helpfulHotel lobby neat, clean, and "homey"The Bad:Lower part of bed (near foot) squeaked (not a prob when sleeping though) :-)Wifi cost $4.99 (for stay - but my stay was only 1 night)  Many places now offer free WifiWe enjoyed our stay here - it wasn't fancy, but it was comfortable and the value was very good in our opinion.  We'll be back for sure the next time we are in Houston.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r25202453-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>25202453</t>
+  </si>
+  <si>
+    <t>02/26/2009</t>
+  </si>
+  <si>
+    <t>Friendly and accommodating staff with all the comforts of home</t>
+  </si>
+  <si>
+    <t>Perfect location, close to shopping, restaurants, downtown, attractions, and freeways.  The staff was very helpful, friendly, efficient, and kind.  The rooms were very clean and comfortable.  Having a kitchen for entertaining was a plus.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r24418520-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>24418520</t>
+  </si>
+  <si>
+    <t>02/09/2009</t>
+  </si>
+  <si>
+    <t>Fine for a couple of nights.</t>
+  </si>
+  <si>
+    <t>My family stayed here for two nights before boarding a cruise in Galveston.  We chose this hotel because of price and proximity to the Galleria. If you are looking for a place to stay for a night or two that is clean and comfortable, Homestead won't disappoint.  Be aware of the fact that they only have weekly maid service, so you might have to make your own bed and pick your towel up off the floor (if this is a big deal, you can pay extra to have daily maid service).  The rooms are a good size - we had 4 adults in one room.  No room service, but there is a small "tuck shop" by the front desk as well as many restaurants nearby.  All rooms also have a decent kitchen with a couple of counter stools.  There is no overnight concierge, however when the concierge was there, they were very helpful in suggesting nearby restaurants, calling taxis, and giving precise directions.     Bottom line: no frills, but it was clean and it was cheapMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>My family stayed here for two nights before boarding a cruise in Galveston.  We chose this hotel because of price and proximity to the Galleria. If you are looking for a place to stay for a night or two that is clean and comfortable, Homestead won't disappoint.  Be aware of the fact that they only have weekly maid service, so you might have to make your own bed and pick your towel up off the floor (if this is a big deal, you can pay extra to have daily maid service).  The rooms are a good size - we had 4 adults in one room.  No room service, but there is a small "tuck shop" by the front desk as well as many restaurants nearby.  All rooms also have a decent kitchen with a couple of counter stools.  There is no overnight concierge, however when the concierge was there, they were very helpful in suggesting nearby restaurants, calling taxis, and giving precise directions.     Bottom line: no frills, but it was clean and it was cheapMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r21624013-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21624013</t>
+  </si>
+  <si>
+    <t>11/07/2008</t>
+  </si>
+  <si>
+    <t>Hated my stay at Homestead Suites</t>
+  </si>
+  <si>
+    <t>Do NOT stay here! They botched my reservation by mixing my reservation up with a block that canceled. They finally found me a room after an hour wait. It was downhill from there. No breakfast, maid service costs extra, internet costs extra, and they forgot to tell me I had four packages waiting for me to pickup. I found out by tracking the packages to find they had already been signed for by the clerk. The A/C is the loudest I've ever heard. It literally vibrates the walls. I could have spent $50 a night more and come out on top.</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r18674342-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>18674342</t>
+  </si>
+  <si>
+    <t>08/06/2008</t>
+  </si>
+  <si>
+    <t>Don't Plan To Go Back</t>
+  </si>
+  <si>
+    <t>Horrible service.  I read the previous reviews of this hotel and thought it would be a nice stay.......NOT
+1. Upon arriving the front desk had folks up there with problems regarding their room (should have known then)
+2. The temperature in my room was a bit warm so I turn the ac unit down and it never got cool.  Called the front desk &amp; was told to give it a minute.  Well I waited an hr and the temperature went up 1 degree so I walked to the front desk to complain.  Was told the maintenace guy will come down there.
+3. While waiting in the warm room the maintenance guy came and read the temperature reading and said that it was reading at 60 degrees and left. Didn't say anything else.
+Now I'm pissed so I went back to the front desk and told her I wanted another room because I'm not paying for a room with no working air.
+4. She told me that I had to wait until they found something else.  More folks was still coming in so I had to wait until she was ready to attend to my problem
+5. Got to the new room and ready for bed and I smelt something like it was burning.  I jumped up paranoid but never could figure out where it was coming from.  I didn't want to hassle with the front desk again so I stayed....Horrible service.  I read the previous reviews of this hotel and thought it would be a nice stay.......NOT1. Upon arriving the front desk had folks up there with problems regarding their room (should have known then)2. The temperature in my room was a bit warm so I turn the ac unit down and it never got cool.  Called the front desk &amp; was told to give it a minute.  Well I waited an hr and the temperature went up 1 degree so I walked to the front desk to complain.  Was told the maintenace guy will come down there.3. While waiting in the warm room the maintenance guy came and read the temperature reading and said that it was reading at 60 degrees and left. Didn't say anything else.Now I'm pissed so I went back to the front desk and told her I wanted another room because I'm not paying for a room with no working air.4. She told me that I had to wait until they found something else.  More folks was still coming in so I had to wait until she was ready to attend to my problem5. Got to the new room and ready for bed and I smelt something like it was burning.  I jumped up paranoid but never could figure out where it was coming from.  I didn't want to hassle with the front desk again so I stayed.6. Got up in the morning to find another room put their trash outside the door and the entire hallway was stinking.  It was horribleNever again will I stay hereMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>Horrible service.  I read the previous reviews of this hotel and thought it would be a nice stay.......NOT
+1. Upon arriving the front desk had folks up there with problems regarding their room (should have known then)
+2. The temperature in my room was a bit warm so I turn the ac unit down and it never got cool.  Called the front desk &amp; was told to give it a minute.  Well I waited an hr and the temperature went up 1 degree so I walked to the front desk to complain.  Was told the maintenace guy will come down there.
+3. While waiting in the warm room the maintenance guy came and read the temperature reading and said that it was reading at 60 degrees and left. Didn't say anything else.
+Now I'm pissed so I went back to the front desk and told her I wanted another room because I'm not paying for a room with no working air.
+4. She told me that I had to wait until they found something else.  More folks was still coming in so I had to wait until she was ready to attend to my problem
+5. Got to the new room and ready for bed and I smelt something like it was burning.  I jumped up paranoid but never could figure out where it was coming from.  I didn't want to hassle with the front desk again so I stayed....Horrible service.  I read the previous reviews of this hotel and thought it would be a nice stay.......NOT1. Upon arriving the front desk had folks up there with problems regarding their room (should have known then)2. The temperature in my room was a bit warm so I turn the ac unit down and it never got cool.  Called the front desk &amp; was told to give it a minute.  Well I waited an hr and the temperature went up 1 degree so I walked to the front desk to complain.  Was told the maintenace guy will come down there.3. While waiting in the warm room the maintenance guy came and read the temperature reading and said that it was reading at 60 degrees and left. Didn't say anything else.Now I'm pissed so I went back to the front desk and told her I wanted another room because I'm not paying for a room with no working air.4. She told me that I had to wait until they found something else.  More folks was still coming in so I had to wait until she was ready to attend to my problem5. Got to the new room and ready for bed and I smelt something like it was burning.  I jumped up paranoid but never could figure out where it was coming from.  I didn't want to hassle with the front desk again so I stayed.6. Got up in the morning to find another room put their trash outside the door and the entire hallway was stinking.  It was horribleNever again will I stay hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r15979954-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>15979954</t>
+  </si>
+  <si>
+    <t>05/13/2008</t>
+  </si>
+  <si>
+    <t>Great value, great location, though basic</t>
+  </si>
+  <si>
+    <t>This hotel is a lot better than I thought!  I would call it a hidden jewel among Houston hotels in terms of value and convenience. 
+I normally stay at other hotels when I visited Houston. Last week, I had a hard time booking a hotel because of a huge convention in Houston.  My company finally booked me a room in this hotel.
+For the price we paid, I was happily surprise that it is probably the best value among all the hotels I have stayed in Houston.  If you are looking for a long-term stay place that is reasonbly clean and  at a low cost, this can be a top choice. 
+This hotel is next to Loop 610 and only one block from the gigantic shopping mall: Galleria.  With all the shops and restaurants on Westheimer Road nearby, this is a very nice and convenient location. 
+They only charge $5 for internet hookup. This is all you have to pay even if you stay here for months. That is right, the $5 is just a setup fee.  After that, you can logon with your computer wireless in your room and use a much as you want, as long as you want. 
+The room is good size, with small kitchen, and refrigerator.  There are pot and pans, microwave, dishes and eating utensils, Sound proofing is very good! 
+However, you do have to somewhat lower your expectation, as this hotel is very...This hotel is a lot better than I thought!  I would call it a hidden jewel among Houston hotels in terms of value and convenience. I normally stay at other hotels when I visited Houston. Last week, I had a hard time booking a hotel because of a huge convention in Houston.  My company finally booked me a room in this hotel.For the price we paid, I was happily surprise that it is probably the best value among all the hotels I have stayed in Houston.  If you are looking for a long-term stay place that is reasonbly clean and  at a low cost, this can be a top choice. This hotel is next to Loop 610 and only one block from the gigantic shopping mall: Galleria.  With all the shops and restaurants on Westheimer Road nearby, this is a very nice and convenient location. They only charge $5 for internet hookup. This is all you have to pay even if you stay here for months. That is right, the $5 is just a setup fee.  After that, you can logon with your computer wireless in your room and use a much as you want, as long as you want. The room is good size, with small kitchen, and refrigerator.  There are pot and pans, microwave, dishes and eating utensils, Sound proofing is very good! However, you do have to somewhat lower your expectation, as this hotel is very basic in term of services and aminities.  The bed is average in comfort, there is only a bar of soap in the bathroom; and they clean room only once a week.    The staff was very friendly and helpful!  If someday I have to stay in Houston for a long visit on my own money,  I would not hesitate to book into this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is a lot better than I thought!  I would call it a hidden jewel among Houston hotels in terms of value and convenience. 
+I normally stay at other hotels when I visited Houston. Last week, I had a hard time booking a hotel because of a huge convention in Houston.  My company finally booked me a room in this hotel.
+For the price we paid, I was happily surprise that it is probably the best value among all the hotels I have stayed in Houston.  If you are looking for a long-term stay place that is reasonbly clean and  at a low cost, this can be a top choice. 
+This hotel is next to Loop 610 and only one block from the gigantic shopping mall: Galleria.  With all the shops and restaurants on Westheimer Road nearby, this is a very nice and convenient location. 
+They only charge $5 for internet hookup. This is all you have to pay even if you stay here for months. That is right, the $5 is just a setup fee.  After that, you can logon with your computer wireless in your room and use a much as you want, as long as you want. 
+The room is good size, with small kitchen, and refrigerator.  There are pot and pans, microwave, dishes and eating utensils, Sound proofing is very good! 
+However, you do have to somewhat lower your expectation, as this hotel is very...This hotel is a lot better than I thought!  I would call it a hidden jewel among Houston hotels in terms of value and convenience. I normally stay at other hotels when I visited Houston. Last week, I had a hard time booking a hotel because of a huge convention in Houston.  My company finally booked me a room in this hotel.For the price we paid, I was happily surprise that it is probably the best value among all the hotels I have stayed in Houston.  If you are looking for a long-term stay place that is reasonbly clean and  at a low cost, this can be a top choice. This hotel is next to Loop 610 and only one block from the gigantic shopping mall: Galleria.  With all the shops and restaurants on Westheimer Road nearby, this is a very nice and convenient location. They only charge $5 for internet hookup. This is all you have to pay even if you stay here for months. That is right, the $5 is just a setup fee.  After that, you can logon with your computer wireless in your room and use a much as you want, as long as you want. The room is good size, with small kitchen, and refrigerator.  There are pot and pans, microwave, dishes and eating utensils, Sound proofing is very good! However, you do have to somewhat lower your expectation, as this hotel is very basic in term of services and aminities.  The bed is average in comfort, there is only a bar of soap in the bathroom; and they clean room only once a week.    The staff was very friendly and helpful!  If someday I have to stay in Houston for a long visit on my own money,  I would not hesitate to book into this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d217746-r7998023-Extended_Stay_America_Houston_Galleria_Uptown-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>7998023</t>
+  </si>
+  <si>
+    <t>06/25/2007</t>
+  </si>
+  <si>
+    <t>Great deal! Kitchen, Location and Room!</t>
+  </si>
+  <si>
+    <t>For $48 including taxes on Priceline it was great. I asked at check-in for non smoking and a room facing away from 610. She said the room booked had both. That was a good sign already! The parking lot had a space then and even late at night right up front.
+Clean room with good A/C,  iron, pots, pans, dish towels, dishes, full fridge with ice trays filled, etc with clean sheets and bathroom. Anything you need was there.  Since it is extended stay there are no toiletries, just some soaps. I never use them anyway so no big deal.  Right off 610; Galleria right at the corner. 
+ It was quiet in my room. I heard a baby crying in the hallway on the way to my room but once inside heard nothing. I think I saw a hair on the floor and a stain on the box springs. If that ruins a stay for you then you may want to spend more elsewhere! 
+They even called within ten minutes of us being in our room to ask if everything was fine or if we needed anything. Great service. I've paid three times as much and received far less service from the front desk. 
+I am shocked by the reviews here but I guess not every person can be satisfied and if I paid more then $70 maybe I would be unhappy.  The worst had to be the $1 can...For $48 including taxes on Priceline it was great. I asked at check-in for non smoking and a room facing away from 610. She said the room booked had both. That was a good sign already! The parking lot had a space then and even late at night right up front.Clean room with good A/C,  iron, pots, pans, dish towels, dishes, full fridge with ice trays filled, etc with clean sheets and bathroom. Anything you need was there.  Since it is extended stay there are no toiletries, just some soaps. I never use them anyway so no big deal.  Right off 610; Galleria right at the corner.  It was quiet in my room. I heard a baby crying in the hallway on the way to my room but once inside heard nothing. I think I saw a hair on the floor and a stain on the box springs. If that ruins a stay for you then you may want to spend more elsewhere! They even called within ten minutes of us being in our room to ask if everything was fine or if we needed anything. Great service. I've paid three times as much and received far less service from the front desk. I am shocked by the reviews here but I guess not every person can be satisfied and if I paid more then $70 maybe I would be unhappy.  The worst had to be the $1 can of coke in the pantry, an oil smell in the elevator and no ice machine. No big deal and I got over it all quickly. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>For $48 including taxes on Priceline it was great. I asked at check-in for non smoking and a room facing away from 610. She said the room booked had both. That was a good sign already! The parking lot had a space then and even late at night right up front.
+Clean room with good A/C,  iron, pots, pans, dish towels, dishes, full fridge with ice trays filled, etc with clean sheets and bathroom. Anything you need was there.  Since it is extended stay there are no toiletries, just some soaps. I never use them anyway so no big deal.  Right off 610; Galleria right at the corner. 
+ It was quiet in my room. I heard a baby crying in the hallway on the way to my room but once inside heard nothing. I think I saw a hair on the floor and a stain on the box springs. If that ruins a stay for you then you may want to spend more elsewhere! 
+They even called within ten minutes of us being in our room to ask if everything was fine or if we needed anything. Great service. I've paid three times as much and received far less service from the front desk. 
+I am shocked by the reviews here but I guess not every person can be satisfied and if I paid more then $70 maybe I would be unhappy.  The worst had to be the $1 can...For $48 including taxes on Priceline it was great. I asked at check-in for non smoking and a room facing away from 610. She said the room booked had both. That was a good sign already! The parking lot had a space then and even late at night right up front.Clean room with good A/C,  iron, pots, pans, dish towels, dishes, full fridge with ice trays filled, etc with clean sheets and bathroom. Anything you need was there.  Since it is extended stay there are no toiletries, just some soaps. I never use them anyway so no big deal.  Right off 610; Galleria right at the corner.  It was quiet in my room. I heard a baby crying in the hallway on the way to my room but once inside heard nothing. I think I saw a hair on the floor and a stain on the box springs. If that ruins a stay for you then you may want to spend more elsewhere! They even called within ten minutes of us being in our room to ask if everything was fine or if we needed anything. Great service. I've paid three times as much and received far less service from the front desk. I am shocked by the reviews here but I guess not every person can be satisfied and if I paid more then $70 maybe I would be unhappy.  The worst had to be the $1 can of coke in the pantry, an oil smell in the elevator and no ice machine. No big deal and I got over it all quickly. Would stay again.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2767,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2799,6343 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>190</v>
+      </c>
+      <c r="X18" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
+      </c>
+      <c r="O21" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>215</v>
+      </c>
+      <c r="X21" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>223</v>
+      </c>
+      <c r="X22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>231</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>232</v>
+      </c>
+      <c r="X23" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>231</v>
+      </c>
+      <c r="O24" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s">
+        <v>248</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>249</v>
+      </c>
+      <c r="X25" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>253</v>
+      </c>
+      <c r="J26" t="s">
+        <v>254</v>
+      </c>
+      <c r="K26" t="s">
+        <v>255</v>
+      </c>
+      <c r="L26" t="s">
+        <v>256</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>257</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>258</v>
+      </c>
+      <c r="X26" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" t="s">
+        <v>263</v>
+      </c>
+      <c r="K27" t="s">
+        <v>264</v>
+      </c>
+      <c r="L27" t="s">
+        <v>265</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>266</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>267</v>
+      </c>
+      <c r="X27" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>271</v>
+      </c>
+      <c r="J28" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28" t="s">
+        <v>274</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>154</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>275</v>
+      </c>
+      <c r="X28" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J29" t="s">
+        <v>280</v>
+      </c>
+      <c r="K29" t="s">
+        <v>281</v>
+      </c>
+      <c r="L29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" t="s">
+        <v>285</v>
+      </c>
+      <c r="K30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L30" t="s">
+        <v>287</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>288</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>289</v>
+      </c>
+      <c r="X30" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>292</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>293</v>
+      </c>
+      <c r="J31" t="s">
+        <v>294</v>
+      </c>
+      <c r="K31" t="s">
+        <v>295</v>
+      </c>
+      <c r="L31" t="s">
+        <v>296</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>297</v>
+      </c>
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>289</v>
+      </c>
+      <c r="X31" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>299</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>300</v>
+      </c>
+      <c r="J32" t="s">
+        <v>301</v>
+      </c>
+      <c r="K32" t="s">
+        <v>302</v>
+      </c>
+      <c r="L32" t="s">
+        <v>303</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>304</v>
+      </c>
+      <c r="O32" t="s">
+        <v>248</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>289</v>
+      </c>
+      <c r="X32" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>306</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>307</v>
+      </c>
+      <c r="J33" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" t="s">
+        <v>310</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>304</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>289</v>
+      </c>
+      <c r="X33" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>312</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>313</v>
+      </c>
+      <c r="J34" t="s">
+        <v>314</v>
+      </c>
+      <c r="K34" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>304</v>
+      </c>
+      <c r="O34" t="s">
+        <v>79</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>289</v>
+      </c>
+      <c r="X34" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>319</v>
+      </c>
+      <c r="J35" t="s">
+        <v>320</v>
+      </c>
+      <c r="K35" t="s">
+        <v>321</v>
+      </c>
+      <c r="L35" t="s">
+        <v>322</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>323</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>326</v>
+      </c>
+      <c r="J36" t="s">
+        <v>327</v>
+      </c>
+      <c r="K36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L36" t="s">
+        <v>329</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>330</v>
+      </c>
+      <c r="O36" t="s">
+        <v>154</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>333</v>
+      </c>
+      <c r="J37" t="s">
+        <v>334</v>
+      </c>
+      <c r="K37" t="s">
+        <v>335</v>
+      </c>
+      <c r="L37" t="s">
+        <v>336</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>337</v>
+      </c>
+      <c r="O37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>339</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>340</v>
+      </c>
+      <c r="J38" t="s">
+        <v>341</v>
+      </c>
+      <c r="K38" t="s">
+        <v>342</v>
+      </c>
+      <c r="L38" t="s">
+        <v>343</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>297</v>
+      </c>
+      <c r="O38" t="s">
+        <v>87</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>344</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>345</v>
+      </c>
+      <c r="J39" t="s">
+        <v>346</v>
+      </c>
+      <c r="K39" t="s">
+        <v>347</v>
+      </c>
+      <c r="L39" t="s">
+        <v>348</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>349</v>
+      </c>
+      <c r="O39" t="s">
+        <v>87</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>351</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>352</v>
+      </c>
+      <c r="J40" t="s">
+        <v>353</v>
+      </c>
+      <c r="K40" t="s">
+        <v>354</v>
+      </c>
+      <c r="L40" t="s">
+        <v>355</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>356</v>
+      </c>
+      <c r="O40" t="s">
+        <v>248</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>357</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>358</v>
+      </c>
+      <c r="J41" t="s">
+        <v>359</v>
+      </c>
+      <c r="K41" t="s">
+        <v>360</v>
+      </c>
+      <c r="L41" t="s">
+        <v>361</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>362</v>
+      </c>
+      <c r="O41" t="s">
+        <v>79</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>363</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>364</v>
+      </c>
+      <c r="J42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K42" t="s">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s">
+        <v>367</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>368</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>370</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>371</v>
+      </c>
+      <c r="J43" t="s">
+        <v>372</v>
+      </c>
+      <c r="K43" t="s">
+        <v>373</v>
+      </c>
+      <c r="L43" t="s">
+        <v>374</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>368</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>375</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>376</v>
+      </c>
+      <c r="J44" t="s">
+        <v>377</v>
+      </c>
+      <c r="K44" t="s">
+        <v>378</v>
+      </c>
+      <c r="L44" t="s">
+        <v>379</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>380</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>381</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>382</v>
+      </c>
+      <c r="J45" t="s">
+        <v>383</v>
+      </c>
+      <c r="K45" t="s">
+        <v>384</v>
+      </c>
+      <c r="L45" t="s">
+        <v>385</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>380</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>386</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>387</v>
+      </c>
+      <c r="J46" t="s">
+        <v>388</v>
+      </c>
+      <c r="K46" t="s">
+        <v>389</v>
+      </c>
+      <c r="L46" t="s">
+        <v>390</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>391</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>392</v>
+      </c>
+      <c r="X46" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>395</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>396</v>
+      </c>
+      <c r="J47" t="s">
+        <v>397</v>
+      </c>
+      <c r="K47" t="s">
+        <v>398</v>
+      </c>
+      <c r="L47" t="s">
+        <v>399</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>400</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>401</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>402</v>
+      </c>
+      <c r="J48" t="s">
+        <v>403</v>
+      </c>
+      <c r="K48" t="s">
+        <v>404</v>
+      </c>
+      <c r="L48" t="s">
+        <v>405</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>406</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>407</v>
+      </c>
+      <c r="X48" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>410</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>411</v>
+      </c>
+      <c r="J49" t="s">
+        <v>403</v>
+      </c>
+      <c r="K49" t="s">
+        <v>412</v>
+      </c>
+      <c r="L49" t="s">
+        <v>413</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>406</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>407</v>
+      </c>
+      <c r="X49" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>415</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>416</v>
+      </c>
+      <c r="J50" t="s">
+        <v>417</v>
+      </c>
+      <c r="K50" t="s">
+        <v>418</v>
+      </c>
+      <c r="L50" t="s">
+        <v>419</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>420</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>421</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>422</v>
+      </c>
+      <c r="J51" t="s">
+        <v>423</v>
+      </c>
+      <c r="K51" t="s">
+        <v>424</v>
+      </c>
+      <c r="L51" t="s">
+        <v>425</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O51" t="s">
+        <v>79</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>428</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>429</v>
+      </c>
+      <c r="J52" t="s">
+        <v>430</v>
+      </c>
+      <c r="K52" t="s">
+        <v>431</v>
+      </c>
+      <c r="L52" t="s">
+        <v>432</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>426</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>434</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>435</v>
+      </c>
+      <c r="J53" t="s">
+        <v>436</v>
+      </c>
+      <c r="K53" t="s">
+        <v>437</v>
+      </c>
+      <c r="L53" t="s">
+        <v>438</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>440</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>441</v>
+      </c>
+      <c r="J54" t="s">
+        <v>442</v>
+      </c>
+      <c r="K54" t="s">
+        <v>443</v>
+      </c>
+      <c r="L54" t="s">
+        <v>444</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>445</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>446</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>447</v>
+      </c>
+      <c r="J55" t="s">
+        <v>448</v>
+      </c>
+      <c r="K55" t="s">
+        <v>449</v>
+      </c>
+      <c r="L55" t="s">
+        <v>450</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>400</v>
+      </c>
+      <c r="O55" t="s">
+        <v>87</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>451</v>
+      </c>
+      <c r="X55" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>454</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>455</v>
+      </c>
+      <c r="J56" t="s">
+        <v>456</v>
+      </c>
+      <c r="K56" t="s">
+        <v>457</v>
+      </c>
+      <c r="L56" t="s">
+        <v>458</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>459</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>460</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>461</v>
+      </c>
+      <c r="J57" t="s">
+        <v>462</v>
+      </c>
+      <c r="K57" t="s">
+        <v>463</v>
+      </c>
+      <c r="L57" t="s">
+        <v>464</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>465</v>
+      </c>
+      <c r="O57" t="s">
+        <v>87</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>466</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>467</v>
+      </c>
+      <c r="J58" t="s">
+        <v>468</v>
+      </c>
+      <c r="K58" t="s">
+        <v>469</v>
+      </c>
+      <c r="L58" t="s">
+        <v>470</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>465</v>
+      </c>
+      <c r="O58" t="s">
+        <v>248</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>471</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>472</v>
+      </c>
+      <c r="J59" t="s">
+        <v>473</v>
+      </c>
+      <c r="K59" t="s">
+        <v>474</v>
+      </c>
+      <c r="L59" t="s">
+        <v>475</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>476</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>478</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>479</v>
+      </c>
+      <c r="J60" t="s">
+        <v>480</v>
+      </c>
+      <c r="K60" t="s">
+        <v>481</v>
+      </c>
+      <c r="L60" t="s">
+        <v>482</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>476</v>
+      </c>
+      <c r="O60" t="s">
+        <v>79</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>483</v>
+      </c>
+      <c r="X60" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>486</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>487</v>
+      </c>
+      <c r="J61" t="s">
+        <v>488</v>
+      </c>
+      <c r="K61" t="s">
+        <v>489</v>
+      </c>
+      <c r="L61" t="s">
+        <v>490</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>491</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>492</v>
+      </c>
+      <c r="X61" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>495</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>496</v>
+      </c>
+      <c r="J62" t="s">
+        <v>497</v>
+      </c>
+      <c r="K62" t="s">
+        <v>498</v>
+      </c>
+      <c r="L62" t="s">
+        <v>499</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>500</v>
+      </c>
+      <c r="X62" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>503</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>504</v>
+      </c>
+      <c r="J63" t="s">
+        <v>505</v>
+      </c>
+      <c r="K63" t="s">
+        <v>204</v>
+      </c>
+      <c r="L63" t="s">
+        <v>506</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>507</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>509</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>510</v>
+      </c>
+      <c r="J64" t="s">
+        <v>511</v>
+      </c>
+      <c r="K64" t="s">
+        <v>512</v>
+      </c>
+      <c r="L64" t="s">
+        <v>513</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>514</v>
+      </c>
+      <c r="X64" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>517</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>518</v>
+      </c>
+      <c r="J65" t="s">
+        <v>519</v>
+      </c>
+      <c r="K65" t="s">
+        <v>520</v>
+      </c>
+      <c r="L65" t="s">
+        <v>521</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>522</v>
+      </c>
+      <c r="O65" t="s">
+        <v>79</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>523</v>
+      </c>
+      <c r="X65" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>526</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>527</v>
+      </c>
+      <c r="J66" t="s">
+        <v>528</v>
+      </c>
+      <c r="K66" t="s">
+        <v>529</v>
+      </c>
+      <c r="L66" t="s">
+        <v>530</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>531</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>532</v>
+      </c>
+      <c r="X66" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>535</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>536</v>
+      </c>
+      <c r="J67" t="s">
+        <v>537</v>
+      </c>
+      <c r="K67" t="s">
+        <v>538</v>
+      </c>
+      <c r="L67" t="s">
+        <v>539</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>540</v>
+      </c>
+      <c r="X67" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>543</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>544</v>
+      </c>
+      <c r="J68" t="s">
+        <v>545</v>
+      </c>
+      <c r="K68" t="s">
+        <v>546</v>
+      </c>
+      <c r="L68" t="s">
+        <v>547</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>548</v>
+      </c>
+      <c r="O68" t="s">
+        <v>79</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>549</v>
+      </c>
+      <c r="X68" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>552</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>553</v>
+      </c>
+      <c r="J69" t="s">
+        <v>554</v>
+      </c>
+      <c r="K69" t="s">
+        <v>555</v>
+      </c>
+      <c r="L69" t="s">
+        <v>556</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>549</v>
+      </c>
+      <c r="X69" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>558</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>559</v>
+      </c>
+      <c r="J70" t="s">
+        <v>554</v>
+      </c>
+      <c r="K70" t="s">
+        <v>560</v>
+      </c>
+      <c r="L70" t="s">
+        <v>561</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>548</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>549</v>
+      </c>
+      <c r="X70" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>563</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>564</v>
+      </c>
+      <c r="J71" t="s">
+        <v>565</v>
+      </c>
+      <c r="K71" t="s">
+        <v>566</v>
+      </c>
+      <c r="L71" t="s">
+        <v>567</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>568</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>569</v>
+      </c>
+      <c r="X71" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>572</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>573</v>
+      </c>
+      <c r="J72" t="s">
+        <v>574</v>
+      </c>
+      <c r="K72" t="s">
+        <v>575</v>
+      </c>
+      <c r="L72" t="s">
+        <v>576</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>577</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>578</v>
+      </c>
+      <c r="X72" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>581</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>582</v>
+      </c>
+      <c r="J73" t="s">
+        <v>583</v>
+      </c>
+      <c r="K73" t="s">
+        <v>584</v>
+      </c>
+      <c r="L73" t="s">
+        <v>585</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>586</v>
+      </c>
+      <c r="X73" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>589</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>590</v>
+      </c>
+      <c r="J74" t="s">
+        <v>591</v>
+      </c>
+      <c r="K74" t="s">
+        <v>592</v>
+      </c>
+      <c r="L74" t="s">
+        <v>593</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>577</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>594</v>
+      </c>
+      <c r="X74" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>597</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>598</v>
+      </c>
+      <c r="J75" t="s">
+        <v>599</v>
+      </c>
+      <c r="K75" t="s">
+        <v>600</v>
+      </c>
+      <c r="L75" t="s">
+        <v>601</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>577</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>602</v>
+      </c>
+      <c r="X75" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>605</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>606</v>
+      </c>
+      <c r="J76" t="s">
+        <v>607</v>
+      </c>
+      <c r="K76" t="s">
+        <v>608</v>
+      </c>
+      <c r="L76" t="s">
+        <v>609</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>610</v>
+      </c>
+      <c r="O76" t="s">
+        <v>87</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>611</v>
+      </c>
+      <c r="X76" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>614</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>615</v>
+      </c>
+      <c r="J77" t="s">
+        <v>616</v>
+      </c>
+      <c r="K77" t="s">
+        <v>617</v>
+      </c>
+      <c r="L77" t="s">
+        <v>618</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>619</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>620</v>
+      </c>
+      <c r="X77" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>623</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>624</v>
+      </c>
+      <c r="J78" t="s">
+        <v>625</v>
+      </c>
+      <c r="K78" t="s">
+        <v>626</v>
+      </c>
+      <c r="L78" t="s">
+        <v>627</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>628</v>
+      </c>
+      <c r="X78" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>631</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>632</v>
+      </c>
+      <c r="J79" t="s">
+        <v>633</v>
+      </c>
+      <c r="K79" t="s">
+        <v>634</v>
+      </c>
+      <c r="L79" t="s">
+        <v>635</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>610</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>636</v>
+      </c>
+      <c r="X79" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>639</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>640</v>
+      </c>
+      <c r="J80" t="s">
+        <v>641</v>
+      </c>
+      <c r="K80" t="s">
+        <v>642</v>
+      </c>
+      <c r="L80" t="s">
+        <v>643</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>644</v>
+      </c>
+      <c r="O80" t="s">
+        <v>87</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>645</v>
+      </c>
+      <c r="X80" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>648</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>649</v>
+      </c>
+      <c r="J81" t="s">
+        <v>650</v>
+      </c>
+      <c r="K81" t="s">
+        <v>651</v>
+      </c>
+      <c r="L81" t="s">
+        <v>652</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>653</v>
+      </c>
+      <c r="X81" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>656</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>657</v>
+      </c>
+      <c r="J82" t="s">
+        <v>658</v>
+      </c>
+      <c r="K82" t="s">
+        <v>659</v>
+      </c>
+      <c r="L82" t="s">
+        <v>660</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>661</v>
+      </c>
+      <c r="X82" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>664</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>665</v>
+      </c>
+      <c r="J83" t="s">
+        <v>666</v>
+      </c>
+      <c r="K83" t="s">
+        <v>667</v>
+      </c>
+      <c r="L83" t="s">
+        <v>668</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>669</v>
+      </c>
+      <c r="O83" t="s">
+        <v>79</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>670</v>
+      </c>
+      <c r="X83" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>673</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>674</v>
+      </c>
+      <c r="J84" t="s">
+        <v>675</v>
+      </c>
+      <c r="K84" t="s">
+        <v>676</v>
+      </c>
+      <c r="L84" t="s">
+        <v>677</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>669</v>
+      </c>
+      <c r="O84" t="s">
+        <v>79</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>678</v>
+      </c>
+      <c r="X84" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>681</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>682</v>
+      </c>
+      <c r="J85" t="s">
+        <v>683</v>
+      </c>
+      <c r="K85" t="s">
+        <v>684</v>
+      </c>
+      <c r="L85" t="s">
+        <v>685</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>686</v>
+      </c>
+      <c r="O85" t="s">
+        <v>79</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>687</v>
+      </c>
+      <c r="X85" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>690</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>691</v>
+      </c>
+      <c r="J86" t="s">
+        <v>692</v>
+      </c>
+      <c r="K86" t="s">
+        <v>693</v>
+      </c>
+      <c r="L86" t="s">
+        <v>694</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>695</v>
+      </c>
+      <c r="O86" t="s">
+        <v>248</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>697</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>698</v>
+      </c>
+      <c r="J87" t="s">
+        <v>699</v>
+      </c>
+      <c r="K87" t="s">
+        <v>700</v>
+      </c>
+      <c r="L87" t="s">
+        <v>701</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>695</v>
+      </c>
+      <c r="O87" t="s">
+        <v>154</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>703</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>704</v>
+      </c>
+      <c r="J88" t="s">
+        <v>705</v>
+      </c>
+      <c r="K88" t="s">
+        <v>706</v>
+      </c>
+      <c r="L88" t="s">
+        <v>707</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>708</v>
+      </c>
+      <c r="O88" t="s">
+        <v>154</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>710</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>711</v>
+      </c>
+      <c r="J89" t="s">
+        <v>712</v>
+      </c>
+      <c r="K89" t="s">
+        <v>713</v>
+      </c>
+      <c r="L89" t="s">
+        <v>714</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>715</v>
+      </c>
+      <c r="O89" t="s">
+        <v>87</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>716</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>717</v>
+      </c>
+      <c r="J90" t="s">
+        <v>718</v>
+      </c>
+      <c r="K90" t="s">
+        <v>719</v>
+      </c>
+      <c r="L90" t="s">
+        <v>720</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>721</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>722</v>
+      </c>
+      <c r="J91" t="s">
+        <v>723</v>
+      </c>
+      <c r="K91" t="s">
+        <v>724</v>
+      </c>
+      <c r="L91" t="s">
+        <v>725</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>726</v>
+      </c>
+      <c r="O91" t="s">
+        <v>154</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>727</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>728</v>
+      </c>
+      <c r="J92" t="s">
+        <v>729</v>
+      </c>
+      <c r="K92" t="s">
+        <v>730</v>
+      </c>
+      <c r="L92" t="s">
+        <v>731</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>732</v>
+      </c>
+      <c r="O92" t="s">
+        <v>87</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>733</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>734</v>
+      </c>
+      <c r="J93" t="s">
+        <v>735</v>
+      </c>
+      <c r="K93" t="s">
+        <v>736</v>
+      </c>
+      <c r="L93" t="s">
+        <v>737</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>738</v>
+      </c>
+      <c r="O93" t="s">
+        <v>79</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>740</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>741</v>
+      </c>
+      <c r="J94" t="s">
+        <v>742</v>
+      </c>
+      <c r="K94" t="s">
+        <v>743</v>
+      </c>
+      <c r="L94" t="s">
+        <v>744</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>745</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>746</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>747</v>
+      </c>
+      <c r="J95" t="s">
+        <v>748</v>
+      </c>
+      <c r="K95" t="s">
+        <v>749</v>
+      </c>
+      <c r="L95" t="s">
+        <v>750</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>751</v>
+      </c>
+      <c r="O95" t="s">
+        <v>79</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>753</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>754</v>
+      </c>
+      <c r="J96" t="s">
+        <v>755</v>
+      </c>
+      <c r="K96" t="s">
+        <v>756</v>
+      </c>
+      <c r="L96" t="s">
+        <v>757</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>36361</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>759</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>760</v>
+      </c>
+      <c r="J97" t="s">
+        <v>761</v>
+      </c>
+      <c r="K97" t="s">
+        <v>762</v>
+      </c>
+      <c r="L97" t="s">
+        <v>763</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>764</v>
+      </c>
+      <c r="O97" t="s">
+        <v>154</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>765</v>
       </c>
     </row>
   </sheetData>
